--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -144,7 +145,7 @@
     <t xml:space="preserve">RD38000025</t>
   </si>
   <si>
-    <t xml:space="preserve">HoReCa_Restaurant_Cafe_Shop_CAP</t>
+    <t xml:space="preserve">HoReCa_Restaurant_Cafe_Shop</t>
   </si>
   <si>
     <t xml:space="preserve">Group</t>
@@ -850,48 +851,48 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="60.0931174089069"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="60.0931174089069"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="60.6275303643725"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="60.6275303643725"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -4349,7 +4350,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -12,9 +12,11 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -620,19 +622,6 @@
   <si>
     <t xml:space="preserve">DEST
 No_DEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVATION_OTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_forLu
-No_EO_forLu</t>
   </si>
   <si>
     <t xml:space="preserve">OCCASIONS</t>
@@ -846,53 +835,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2:C46"/>
+      <selection pane="bottomLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="60.6275303643725"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="60.6275303643725"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.2712550607287"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.2712550607287"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="30.3927125506073"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -4067,7 +4055,7 @@
     </row>
     <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>38</v>
@@ -4097,10 +4085,10 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4125,17 +4113,17 @@
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
       <c r="AI43" s="7" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AJ43" s="7"/>
-      <c r="AK43" s="8" t="n">
-        <v>29</v>
+      <c r="AK43" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="AL43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>38</v>
@@ -4147,13 +4135,13 @@
         <v>170</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>180</v>
@@ -4165,10 +4153,10 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -4193,17 +4181,17 @@
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
       <c r="AI44" s="7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="10" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="AL44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>38</v>
@@ -4214,30 +4202,24 @@
       <c r="D45" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="N45" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -4261,76 +4243,14 @@
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7" t="n">
-        <v>50</v>
+        <v>904</v>
       </c>
       <c r="AJ45" s="7"/>
-      <c r="AK45" s="10" t="s">
-        <v>177</v>
-      </c>
+      <c r="AK45" s="8"/>
       <c r="AL45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
-        <v>55</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7" t="n">
-        <v>904</v>
-      </c>
-      <c r="AJ46" s="7"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL45"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4350,7 +4270,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C46 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4378,10 +4298,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>33</v>
@@ -4390,18 +4310,18 @@
         <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -276,7 +277,7 @@
     <t xml:space="preserve">BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000026583, 5449000034335, 40822426</t>
+    <t xml:space="preserve">90418822, 5449000034335, 40822426</t>
   </si>
   <si>
     <t xml:space="preserve">BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
@@ -837,50 +838,50 @@
   </sheetPr>
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.2712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.2712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="30.3927125506073"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -4250,7 +4251,7 @@
       <c r="AL45" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL45"/>
+  <autoFilter ref="A1:AL1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190729_1304\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA25D3-A69B-466F-8795-2949A026BC50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HoReCa Restaurant_Cafe" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
+    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,133 +35,133 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa_Restaurant_Cafe_Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Sub category</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>sub locations to include</t>
+  </si>
+  <si>
+    <t>sub locations to exclude</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000025</t>
+  </si>
+  <si>
+    <t>HoReCa_Restaurant_Cafe_Shop</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -167,16 +171,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -192,191 +196,188 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801
+    <t>Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Sprite - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>801
 802</t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.33L Glass/SmartWater Still - 0.6L/BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.33л стекло/Смарт Вода - 0.6л/БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90418822, 5449000034335, 40822426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.75л стекло/БонАква Газ - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.75L Glass, BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90382741, 5449000196972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13
+    <t>BonAqua Still - 0.33L Glass/SmartWater Still - 0.6L/BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.33л стекло/Смарт Вода - 0.6л/БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>90418822, 5449000034335, 40822426</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.75л стекло/БонАква Газ - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.75L Glass, BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>90382741, 5449000196972</t>
+  </si>
+  <si>
+    <t>Juice Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>13
 14
 18
 16</t>
   </si>
   <si>
-    <t xml:space="preserve">Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Peach - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich 0.2L Glass other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич 0.2л стекло остальные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17
+    <t>Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Peach - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich 0.2L Glass other</t>
+  </si>
+  <si>
+    <t>Рич 0.2л стекло остальные</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>17
 15
 19
 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Rich - Cherry - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Pineapple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Ананас - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Grapefruit - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Грейпфрут - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Tomato - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Томат - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
+    <t>Rich - Cherry - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Вишня - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Pineapple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Ананас - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Grapefruit - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Грейпфрут - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Tomato - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Томат - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
   </si>
   <si>
     <t xml:space="preserve">23
@@ -386,131 +387,131 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes, Coca-Cola, Bonaqua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Menu Activation, Menu, Menu Insert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Activation, Table Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Импульс: Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Activation</t>
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>Menu Activation</t>
+  </si>
+  <si>
+    <t>Активация Меню</t>
+  </si>
+  <si>
+    <t>Brand: Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
+  </si>
+  <si>
+    <t>Schweppes, Coca-Cola, Bonaqua</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Other Menu Activation, Menu, Menu Insert</t>
+  </si>
+  <si>
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Bar Activation, Table Activation</t>
+  </si>
+  <si>
+    <t>Impulse Display</t>
+  </si>
+  <si>
+    <t>Импульс: Дисплей</t>
+  </si>
+  <si>
+    <t>Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
+  </si>
+  <si>
+    <t>Destination Activation</t>
+  </si>
+  <si>
+    <t>Активация Стола</t>
+  </si>
+  <si>
+    <t>Table Activation</t>
   </si>
   <si>
     <t xml:space="preserve">27
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Destination: Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола: Имиджи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation: NRGB/Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
+    <t>Destination: Images</t>
+  </si>
+  <si>
+    <t>Активация Стола: Имиджи</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Local21</t>
+  </si>
+  <si>
+    <t>Any Other Activation</t>
+  </si>
+  <si>
+    <t>Другие активации</t>
+  </si>
+  <si>
+    <t>Any Other Activation: NRGB/Mix</t>
+  </si>
+  <si>
+    <t>Другие активации: Cтекло/Миксабилити</t>
   </si>
   <si>
     <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta </t>
   </si>
   <si>
-    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta , SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability, Glass, Mocktails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимый ХО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
+    <t>Bonaqua, Sprite, Rich, Dobriy, Fanta , SmartWater</t>
+  </si>
+  <si>
+    <t>Mixability, Glass, Mocktails</t>
+  </si>
+  <si>
+    <t>Menu, Menu Insert, Other Menu Activation</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Visible Cooler</t>
+  </si>
+  <si>
+    <t>Видимый ХО</t>
+  </si>
+  <si>
+    <t>Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">39
@@ -518,176 +519,178 @@
 41 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler is Visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО виден</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler fullness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО Заполнен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of filled Coolers (scenes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler wo other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО без посторонней продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of pure Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of TCCC product at least 98%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIS_COOLER_SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible cooler SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39
+    <t>Cooler is Visible</t>
+  </si>
+  <si>
+    <t>ХО виден</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>SCENES</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Cooler fullness</t>
+  </si>
+  <si>
+    <t>ХО Заполнен</t>
+  </si>
+  <si>
+    <t>number of filled Coolers (scenes)</t>
+  </si>
+  <si>
+    <t>Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler wo other products</t>
+  </si>
+  <si>
+    <t>ХО без посторонней продукции</t>
+  </si>
+  <si>
+    <t>number of pure Coolers</t>
+  </si>
+  <si>
+    <t>Share of TCCC product at least 98%</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>LOCAL 6</t>
+  </si>
+  <si>
+    <t>VIS_COOLER_SAP</t>
+  </si>
+  <si>
+    <t>Visible cooler SAP</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
+  </si>
+  <si>
+    <t>39
 40
 41</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">DEST
+    <t>DEST
 No_DEST</t>
   </si>
   <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>EO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">23
+    <t>23
 24
 26
 29</t>
   </si>
   <si>
-    <t xml:space="preserve">DO
+    <t>DO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Score Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI weighted Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be added on the 16th of December</t>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>KPI Score Formula</t>
+  </si>
+  <si>
+    <t>KPI weighted Score</t>
+  </si>
+  <si>
+    <t>Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t>KPI from POS 2016</t>
+  </si>
+  <si>
+    <t>Will be added on the 16th of December</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.33L Glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -696,197 +699,467 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AL45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col min="1" max="1" width="12.44140625" style="1"/>
+    <col min="2" max="2" width="13.21875" style="1"/>
+    <col min="3" max="3" width="35.44140625" style="1"/>
+    <col min="4" max="5" width="13.33203125" style="1"/>
+    <col min="6" max="6" width="67" style="1"/>
+    <col min="7" max="7" width="67.5546875" style="1"/>
+    <col min="8" max="8" width="32.21875" style="1"/>
+    <col min="9" max="9" width="18.5546875" style="1"/>
+    <col min="10" max="10" width="11.109375" style="1"/>
+    <col min="11" max="11" width="15.88671875" style="1"/>
+    <col min="12" max="12" width="16.109375" style="1"/>
+    <col min="13" max="13" width="38.5546875" style="1"/>
+    <col min="14" max="14" width="38.5546875" style="2"/>
+    <col min="15" max="15" width="21.5546875" style="1"/>
+    <col min="16" max="16" width="18.44140625" style="1"/>
+    <col min="17" max="17" width="30.6640625" style="1"/>
+    <col min="18" max="18" width="25.88671875" style="1"/>
+    <col min="19" max="19" width="20.6640625" style="1"/>
+    <col min="20" max="20" width="14" style="1"/>
+    <col min="21" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="16.33203125" style="1"/>
+    <col min="23" max="23" width="20" style="1"/>
+    <col min="24" max="24" width="25" style="1"/>
+    <col min="25" max="25" width="24.33203125" style="1"/>
+    <col min="26" max="26" width="41.5546875" style="1"/>
+    <col min="27" max="27" width="22.44140625" style="1"/>
+    <col min="28" max="28" width="28" style="1"/>
+    <col min="29" max="29" width="28.33203125" style="1"/>
+    <col min="30" max="30" width="18.6640625" style="1"/>
+    <col min="31" max="31" width="16" style="3"/>
+    <col min="32" max="32" width="15.21875" style="1"/>
+    <col min="33" max="33" width="15.5546875" style="1"/>
+    <col min="34" max="34" width="33.109375" style="1"/>
+    <col min="35" max="35" width="10.6640625" style="1"/>
+    <col min="36" max="36" width="10.33203125" style="1"/>
+    <col min="37" max="37" width="23" style="2"/>
+    <col min="38" max="38" width="11.44140625" style="1"/>
+    <col min="39" max="1025" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:38" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1275,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1051,10 +1324,10 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="n">
+      <c r="AI2" s="7">
         <v>300</v>
       </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AJ2" s="7">
         <v>1</v>
       </c>
       <c r="AK2" s="10" t="s">
@@ -1062,8 +1335,8 @@
       </c>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1115,21 +1388,21 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="7" t="n">
+      <c r="AI3" s="7">
         <v>1</v>
       </c>
-      <c r="AJ3" s="7" t="n">
+      <c r="AJ3" s="7">
         <v>2</v>
       </c>
       <c r="AK3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="7" t="n">
+      <c r="AL3" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1154,7 +1427,7 @@
         <v>52</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7"/>
@@ -1162,7 +1435,7 @@
       <c r="M4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="8">
         <v>50112128</v>
       </c>
       <c r="O4" s="7"/>
@@ -1191,25 +1464,25 @@
       <c r="AD4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="9" t="n">
-        <v>0.050021</v>
+      <c r="AE4" s="9">
+        <v>5.0021000000000003E-2</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="7" t="n">
+      <c r="AI4" s="7">
         <v>2</v>
       </c>
-      <c r="AJ4" s="7" t="n">
+      <c r="AJ4" s="7">
         <v>3</v>
       </c>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="7" t="n">
+      <c r="AL4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1234,7 +1507,7 @@
         <v>52</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="7"/>
@@ -1242,7 +1515,7 @@
       <c r="M5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="8">
         <v>90375408</v>
       </c>
       <c r="O5" s="7"/>
@@ -1271,25 +1544,25 @@
       <c r="AD5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="9" t="n">
-        <v>0.050021</v>
+      <c r="AE5" s="9">
+        <v>5.0021000000000003E-2</v>
       </c>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="7" t="n">
+      <c r="AI5" s="7">
         <v>4</v>
       </c>
-      <c r="AJ5" s="7" t="n">
+      <c r="AJ5" s="7">
         <v>3</v>
       </c>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="7" t="n">
+      <c r="AL5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1314,16 +1587,16 @@
         <v>52</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>111111</v>
+      <c r="M6" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="12">
+        <v>87303377</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1351,25 +1624,25 @@
       <c r="AD6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="9" t="n">
-        <v>0.049993</v>
+      <c r="AE6" s="9">
+        <v>4.9993000000000003E-2</v>
       </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="7" t="n">
+      <c r="AI6" s="7">
         <v>803</v>
       </c>
-      <c r="AJ6" s="7" t="n">
+      <c r="AJ6" s="7">
         <v>3</v>
       </c>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1385,24 +1658,24 @@
         <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="8" t="n">
+        <v>62</v>
+      </c>
+      <c r="N7" s="8">
         <v>40822549</v>
       </c>
       <c r="O7" s="7"/>
@@ -1431,25 +1704,25 @@
       <c r="AD7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="9" t="n">
-        <v>0.049993</v>
+      <c r="AE7" s="9">
+        <v>4.9993000000000003E-2</v>
       </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="7" t="n">
+      <c r="AI7" s="7">
         <v>5</v>
       </c>
-      <c r="AJ7" s="7" t="n">
+      <c r="AJ7" s="7">
         <v>3</v>
       </c>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="7" t="n">
+      <c r="AL7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1465,24 +1738,24 @@
         <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N8" s="8">
         <v>40822341</v>
       </c>
       <c r="O8" s="7"/>
@@ -1511,25 +1784,25 @@
       <c r="AD8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE8" s="9" t="n">
-        <v>0.049993</v>
+      <c r="AE8" s="9">
+        <v>4.9993000000000003E-2</v>
       </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="n">
+      <c r="AI8" s="7">
         <v>3</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="7">
         <v>3</v>
       </c>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="7" t="n">
+      <c r="AL8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1545,24 +1818,24 @@
         <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="8" t="n">
+        <v>66</v>
+      </c>
+      <c r="N9" s="8">
         <v>50112135</v>
       </c>
       <c r="O9" s="7"/>
@@ -1591,25 +1864,25 @@
       <c r="AD9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE9" s="9" t="n">
-        <v>0.01799</v>
+      <c r="AE9" s="9">
+        <v>1.7989999999999999E-2</v>
       </c>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="n">
+      <c r="AI9" s="7">
         <v>804</v>
       </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="7">
         <v>3</v>
       </c>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="7" t="n">
+      <c r="AL9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1625,24 +1898,24 @@
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="8" t="n">
+        <v>68</v>
+      </c>
+      <c r="N10" s="8">
         <v>87126860</v>
       </c>
       <c r="O10" s="7"/>
@@ -1671,25 +1944,25 @@
       <c r="AD10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE10" s="9" t="n">
-        <v>0.01799</v>
+      <c r="AE10" s="9">
+        <v>1.7989999999999999E-2</v>
       </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="n">
+      <c r="AI10" s="7">
         <v>805</v>
       </c>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="7">
         <v>3</v>
       </c>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="7" t="n">
+      <c r="AL10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1702,13 +1975,13 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>47</v>
@@ -1743,21 +2016,21 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="n">
+      <c r="AI11" s="7">
         <v>9</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="7">
         <v>2</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL11" s="7" t="n">
+        <v>73</v>
+      </c>
+      <c r="AL11" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1770,28 +2043,28 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1819,25 +2092,25 @@
       <c r="AD12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE12" s="9" t="n">
-        <v>0.050055</v>
+      <c r="AE12" s="9">
+        <v>5.0055000000000002E-2</v>
       </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="7" t="n">
+      <c r="AI12" s="7">
         <v>801</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="7">
         <v>3</v>
       </c>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="7" t="n">
+      <c r="AL12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1850,28 +2123,28 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1899,25 +2172,25 @@
       <c r="AD13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" s="9" t="n">
-        <v>0.02399</v>
+      <c r="AE13" s="9">
+        <v>2.3990000000000001E-2</v>
       </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="n">
+      <c r="AI13" s="7">
         <v>802</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="7">
         <v>3</v>
       </c>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="7" t="n">
+      <c r="AL13" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1930,13 +2203,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>47</v>
@@ -1971,21 +2244,21 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7" t="n">
+      <c r="AI14" s="7">
         <v>12</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="7">
         <v>2</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL14" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL14" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1998,27 +2271,27 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="7">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="N15" s="8">
         <v>4650075420386</v>
       </c>
       <c r="O15" s="7"/>
@@ -2047,25 +2320,25 @@
       <c r="AD15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE15" s="9" t="n">
-        <v>0.04999</v>
+      <c r="AE15" s="9">
+        <v>4.999E-2</v>
       </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="n">
+      <c r="AI15" s="7">
         <v>13</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="7">
         <v>3</v>
       </c>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="7" t="n">
+      <c r="AL15" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2078,27 +2351,27 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="N16" s="8">
         <v>4650075420362</v>
       </c>
       <c r="O16" s="7"/>
@@ -2127,25 +2400,25 @@
       <c r="AD16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="9" t="n">
-        <v>0.023989</v>
+      <c r="AE16" s="9">
+        <v>2.3989E-2</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="n">
+      <c r="AI16" s="7">
         <v>14</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="7">
         <v>3</v>
       </c>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AL16" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2158,27 +2431,27 @@
         <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="N17" s="8">
         <v>4650075420423</v>
       </c>
       <c r="O17" s="7"/>
@@ -2207,25 +2480,25 @@
       <c r="AD17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE17" s="9" t="n">
-        <v>0.023989</v>
+      <c r="AE17" s="9">
+        <v>2.3989E-2</v>
       </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="7" t="n">
+      <c r="AI17" s="7">
         <v>18</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="7">
         <v>3</v>
       </c>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AL17" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>22</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2238,19 +2511,19 @@
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
@@ -2279,27 +2552,27 @@
       <c r="AD18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="9" t="n">
-        <v>0.023989</v>
+      <c r="AE18" s="9">
+        <v>2.3989E-2</v>
       </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7" t="n">
+      <c r="AI18" s="7">
         <v>16</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="7">
         <v>3</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL18" s="7" t="n">
+        <v>94</v>
+      </c>
+      <c r="AL18" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2312,27 +2585,27 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="8" t="n">
+        <v>95</v>
+      </c>
+      <c r="N19" s="8">
         <v>4650075420409</v>
       </c>
       <c r="O19" s="7"/>
@@ -2365,19 +2638,19 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="n">
+      <c r="AI19" s="7">
         <v>15</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="7">
         <v>4</v>
       </c>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AL19" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>24</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2390,27 +2663,27 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="N20" s="8">
         <v>4650075420508</v>
       </c>
       <c r="O20" s="7"/>
@@ -2443,19 +2716,19 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7" t="n">
+      <c r="AI20" s="7">
         <v>17</v>
       </c>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="7">
         <v>4</v>
       </c>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="7" t="n">
+      <c r="AL20" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2468,27 +2741,27 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="8" t="n">
+        <v>99</v>
+      </c>
+      <c r="N21" s="8">
         <v>4650075420485</v>
       </c>
       <c r="O21" s="7"/>
@@ -2521,19 +2794,19 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="n">
+      <c r="AI21" s="7">
         <v>19</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="7">
         <v>4</v>
       </c>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="7" t="n">
+      <c r="AL21" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2546,27 +2819,27 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="7">
         <v>1</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N22" s="8" t="n">
+        <v>101</v>
+      </c>
+      <c r="N22" s="8">
         <v>4650075420447</v>
       </c>
       <c r="O22" s="7"/>
@@ -2599,19 +2872,19 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7" t="n">
+      <c r="AI22" s="7">
         <v>20</v>
       </c>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="7">
         <v>4</v>
       </c>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="7" t="n">
+      <c r="AL22" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>27</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2624,13 +2897,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>47</v>
@@ -2665,21 +2938,21 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="7" t="n">
+      <c r="AI23" s="7">
         <v>21</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="7">
         <v>2</v>
       </c>
-      <c r="AK23" s="8" t="n">
+      <c r="AK23" s="8">
         <v>806</v>
       </c>
-      <c r="AL23" s="7" t="n">
+      <c r="AL23" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>28</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2692,27 +2965,27 @@
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="7">
         <v>1</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" s="8" t="n">
+        <v>105</v>
+      </c>
+      <c r="N24" s="8">
         <v>5449000148056</v>
       </c>
       <c r="O24" s="7"/>
@@ -2741,25 +3014,25 @@
       <c r="AD24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="9" t="n">
-        <v>0.017997</v>
+      <c r="AE24" s="9">
+        <v>1.7996999999999999E-2</v>
       </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="7" t="n">
+      <c r="AI24" s="7">
         <v>806</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="7">
         <v>3</v>
       </c>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2773,10 +3046,10 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>40</v>
@@ -2807,19 +3080,19 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="n">
+      <c r="AI25" s="7">
         <v>400</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="7">
         <v>1</v>
       </c>
       <c r="AK25" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2832,50 +3105,50 @@
         <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="7">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Z26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -2883,25 +3156,25 @@
       <c r="AD26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="9" t="n">
-        <v>0.166666</v>
+      <c r="AE26" s="9">
+        <v>0.16666600000000001</v>
       </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="7" t="n">
+      <c r="AI26" s="7">
         <v>23</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="7">
         <v>2</v>
       </c>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AL26" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>32</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2914,19 +3187,19 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="7">
         <v>1</v>
       </c>
       <c r="K27" s="7"/>
@@ -2946,10 +3219,10 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
@@ -2957,27 +3230,27 @@
       <c r="AD27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE27" s="9" t="n">
-        <v>0.083333</v>
+      <c r="AE27" s="9">
+        <v>8.3333000000000004E-2</v>
       </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="n">
+      <c r="AI27" s="7">
         <v>24</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="7">
         <v>2</v>
       </c>
-      <c r="AK27" s="8" t="n">
+      <c r="AK27" s="8">
         <v>25</v>
       </c>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2990,50 +3263,50 @@
         <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="7">
         <v>3</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -3045,19 +3318,19 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="7" t="n">
+      <c r="AI28" s="7">
         <v>25</v>
       </c>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="7">
         <v>3</v>
       </c>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="7" t="n">
+      <c r="AL28" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>34</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3070,19 +3343,19 @@
         <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="7">
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
@@ -3102,10 +3375,10 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -3113,27 +3386,27 @@
       <c r="AD29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE29" s="9" t="n">
-        <v>0.083333</v>
+      <c r="AE29" s="9">
+        <v>8.3333000000000004E-2</v>
       </c>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="7" t="n">
+      <c r="AI29" s="7">
         <v>26</v>
       </c>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="7">
         <v>2</v>
       </c>
       <c r="AK29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL29" s="7" t="n">
+        <v>129</v>
+      </c>
+      <c r="AL29" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>35</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3146,29 +3419,29 @@
         <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -3177,17 +3450,17 @@
         <v>53</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -3199,19 +3472,19 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="7" t="n">
+      <c r="AI30" s="7">
         <v>27</v>
       </c>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="7">
         <v>3</v>
       </c>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="7" t="n">
+      <c r="AL30" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3221,22 +3494,22 @@
         <v>39</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
@@ -3263,27 +3536,27 @@
       <c r="AD31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="9" t="n">
+      <c r="AE31" s="9">
         <v>0.12</v>
       </c>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
+      <c r="AI31" s="7">
         <v>29</v>
       </c>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="7">
         <v>2</v>
       </c>
-      <c r="AK31" s="8" t="n">
+      <c r="AK31" s="8">
         <v>900</v>
       </c>
-      <c r="AL31" s="7" t="n">
+      <c r="AL31" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3293,53 +3566,53 @@
         <v>39</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="7">
         <v>1</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>53</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -3351,19 +3624,19 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="n">
+      <c r="AI32" s="7">
         <v>900</v>
       </c>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="7">
         <v>3</v>
       </c>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="7" t="n">
+      <c r="AL32" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>42</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -3377,10 +3650,10 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>40</v>
@@ -3411,19 +3684,19 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
+      <c r="AI33" s="7">
         <v>310</v>
       </c>
-      <c r="AJ33" s="7" t="n">
+      <c r="AJ33" s="7">
         <v>1</v>
       </c>
-      <c r="AK33" s="8" t="n">
+      <c r="AK33" s="8">
         <v>312</v>
       </c>
       <c r="AL33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>43</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3437,10 +3710,10 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>40</v>
@@ -3471,21 +3744,21 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7" t="n">
+      <c r="AI34" s="7">
         <v>312</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="7">
         <v>1</v>
       </c>
-      <c r="AK34" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL34" s="7" t="n">
+      <c r="AK34" s="8">
+        <v>38</v>
+      </c>
+      <c r="AL34" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -3495,22 +3768,22 @@
         <v>39</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="7">
         <v>3</v>
       </c>
       <c r="K35" s="7"/>
@@ -3528,7 +3801,7 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -3537,27 +3810,27 @@
       <c r="AD35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE35" s="9" t="n">
-        <v>0.046668</v>
+      <c r="AE35" s="9">
+        <v>4.6668000000000001E-2</v>
       </c>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AI35" s="7">
+        <v>38</v>
+      </c>
+      <c r="AJ35" s="7">
         <v>2</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL35" s="7" t="n">
+        <v>152</v>
+      </c>
+      <c r="AL35" s="7">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3567,22 +3840,22 @@
         <v>39</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="7">
         <v>1</v>
       </c>
       <c r="K36" s="7"/>
@@ -3597,7 +3870,7 @@
         <v>53</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -3607,7 +3880,7 @@
         <v>55</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3619,19 +3892,19 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="n">
+      <c r="AI36" s="7">
         <v>39</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="7">
         <v>3</v>
       </c>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="7" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="AL36" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>46</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3641,31 +3914,31 @@
         <v>39</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="7" t="n">
+      <c r="J37" s="7">
         <v>1</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -3675,14 +3948,14 @@
         <v>53</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -3695,21 +3968,21 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI37" s="7" t="n">
+        <v>164</v>
+      </c>
+      <c r="AI37" s="7">
         <v>40</v>
       </c>
-      <c r="AJ37" s="7" t="n">
+      <c r="AJ37" s="7">
         <v>3</v>
       </c>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="7" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="AL37" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -3719,31 +3992,31 @@
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="J38" s="7">
         <v>1</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -3753,14 +4026,14 @@
         <v>53</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -3773,21 +4046,21 @@
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI38" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="AI38" s="7">
         <v>41</v>
       </c>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="7">
         <v>3</v>
       </c>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="7" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="AL38" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>48</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -3797,22 +4070,22 @@
         <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -3825,7 +4098,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3841,17 +4114,17 @@
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="n">
+      <c r="AI39" s="7">
         <v>43</v>
       </c>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>49</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3861,31 +4134,31 @@
         <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N40" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -3893,7 +4166,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -3909,17 +4182,17 @@
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-      <c r="AI40" s="7" t="n">
+      <c r="AI40" s="7">
         <v>44</v>
       </c>
       <c r="AJ40" s="7"/>
-      <c r="AK40" s="8" t="n">
+      <c r="AK40" s="8">
         <v>23</v>
       </c>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -3929,31 +4202,31 @@
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="H41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -3961,7 +4234,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3977,17 +4250,17 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
-      <c r="AI41" s="7" t="n">
+      <c r="AI41" s="7">
         <v>45</v>
       </c>
       <c r="AJ41" s="7"/>
-      <c r="AK41" s="8" t="n">
+      <c r="AK41" s="8">
         <v>24</v>
       </c>
       <c r="AL41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>51</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3997,31 +4270,31 @@
         <v>39</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="H42" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -4029,7 +4302,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -4045,17 +4318,17 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
-      <c r="AI42" s="7" t="n">
+      <c r="AI42" s="7">
         <v>46</v>
       </c>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="8" t="n">
+      <c r="AK42" s="8">
         <v>26</v>
       </c>
       <c r="AL42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -4065,31 +4338,31 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="H43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N43" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4097,7 +4370,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4113,17 +4386,17 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="7" t="n">
+      <c r="AI43" s="7">
         <v>49</v>
       </c>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4133,31 +4406,31 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="H44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -4165,7 +4438,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -4181,17 +4454,17 @@
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="7" t="n">
+      <c r="AI44" s="7">
         <v>50</v>
       </c>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>55</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4201,20 +4474,20 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -4227,7 +4500,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4243,7 +4516,7 @@
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7" t="n">
+      <c r="AI45" s="7">
         <v>904</v>
       </c>
       <c r="AJ45" s="7"/>
@@ -4251,87 +4524,71 @@
       <c r="AL45" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AL1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="0" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190729_1304\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA25D3-A69B-466F-8795-2949A026BC50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
-    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="HoReCa Restaurant_Cafe" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,133 +31,133 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Result Format</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Sub category</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>sub locations to include</t>
-  </si>
-  <si>
-    <t>sub locations to exclude</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>RD38000025</t>
-  </si>
-  <si>
-    <t>HoReCa_Restaurant_Cafe_Shop</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Представленность</t>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoReCa_Restaurant_Cafe_Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -171,16 +167,16 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -196,188 +192,191 @@
 </t>
   </si>
   <si>
-    <t>Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>801
+    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanilla - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801
 802</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.33L Glass/SmartWater Still - 0.6L/BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.33л стекло/Смарт Вода - 0.6л/БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>90418822, 5449000034335, 40822426</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.75л стекло/БонАква Газ - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.75L Glass, BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>90382741, 5449000196972</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>13
+    <t xml:space="preserve">BonAqua Still - 0.33L Glass/SmartWater Still - 0.6L/BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.33л стекло/Смарт Вода - 0.6л/БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90418822, 5449000034335, 40822426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.75л стекло/БонАква Газ - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.75L Glass, BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90382741, 5449000196972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13
 14
 18
 16</t>
   </si>
   <si>
-    <t>Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich 0.2L Glass other</t>
-  </si>
-  <si>
-    <t>Рич 0.2л стекло остальные</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>17
+    <t xml:space="preserve">Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich 0.2L Glass other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич 0.2л стекло остальные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17
 15
 19
 20</t>
   </si>
   <si>
-    <t>Rich - Cherry - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Pineapple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Ананас - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Grapefruit - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Грейпфрут - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Tomato - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Томат - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Activations</t>
-  </si>
-  <si>
-    <t>Активации</t>
+    <t xml:space="preserve">Rich - Cherry - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pineapple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Ананас - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Grapefruit - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Грейпфрут - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Tomato - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Томат - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
   </si>
   <si>
     <t xml:space="preserve">23
@@ -387,131 +386,131 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 16</t>
-  </si>
-  <si>
-    <t>Menu Activation</t>
-  </si>
-  <si>
-    <t>Активация Меню</t>
-  </si>
-  <si>
-    <t>Brand: Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
-  </si>
-  <si>
-    <t>Schweppes, Coca-Cola, Bonaqua</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>Activation</t>
-  </si>
-  <si>
-    <t>Other Menu Activation, Menu, Menu Insert</t>
-  </si>
-  <si>
-    <t>STANDARD 17</t>
-  </si>
-  <si>
-    <t>Impulse Activation</t>
-  </si>
-  <si>
-    <t>Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>Bar Activation, Table Activation</t>
-  </si>
-  <si>
-    <t>Impulse Display</t>
-  </si>
-  <si>
-    <t>Импульс: Дисплей</t>
-  </si>
-  <si>
-    <t>Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
-  </si>
-  <si>
-    <t>Destination Activation</t>
-  </si>
-  <si>
-    <t>Активация Стола</t>
-  </si>
-  <si>
-    <t>Table Activation</t>
+    <t xml:space="preserve">STANDARD 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes, Coca-Cola, Bonaqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Menu Activation, Menu, Menu Insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Activation, Table Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульс: Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Стола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Activation</t>
   </si>
   <si>
     <t xml:space="preserve">27
 </t>
   </si>
   <si>
-    <t>Destination: Images</t>
-  </si>
-  <si>
-    <t>Активация Стола: Имиджи</t>
-  </si>
-  <si>
-    <t>IC Activation</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Local21</t>
-  </si>
-  <si>
-    <t>Any Other Activation</t>
-  </si>
-  <si>
-    <t>Другие активации</t>
-  </si>
-  <si>
-    <t>Any Other Activation: NRGB/Mix</t>
-  </si>
-  <si>
-    <t>Другие активации: Cтекло/Миксабилити</t>
+    <t xml:space="preserve">Destination: Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Стола: Имиджи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Other Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Other Activation: NRGB/Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
   </si>
   <si>
     <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta </t>
   </si>
   <si>
-    <t>Bonaqua, Sprite, Rich, Dobriy, Fanta , SmartWater</t>
-  </si>
-  <si>
-    <t>Mixability, Glass, Mocktails</t>
-  </si>
-  <si>
-    <t>Menu, Menu Insert, Other Menu Activation</t>
-  </si>
-  <si>
-    <t>Coolers</t>
-  </si>
-  <si>
-    <t>Холодильники</t>
-  </si>
-  <si>
-    <t>Coolers: Quality</t>
-  </si>
-  <si>
-    <t>Холодильник: Качество</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Visible Cooler</t>
-  </si>
-  <si>
-    <t>Видимый ХО</t>
-  </si>
-  <si>
-    <t>Cooler</t>
+    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta , SmartWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability, Glass, Mocktails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Видимый ХО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">39
@@ -519,178 +518,176 @@
 41 </t>
   </si>
   <si>
-    <t>Cooler is Visible</t>
-  </si>
-  <si>
-    <t>ХО виден</t>
-  </si>
-  <si>
-    <t>Scenes with no tagging</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>Cooler fullness</t>
-  </si>
-  <si>
-    <t>ХО Заполнен</t>
-  </si>
-  <si>
-    <t>number of filled Coolers (scenes)</t>
-  </si>
-  <si>
-    <t>Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t>Cooler wo other products</t>
-  </si>
-  <si>
-    <t>ХО без посторонней продукции</t>
-  </si>
-  <si>
-    <t>number of pure Coolers</t>
-  </si>
-  <si>
-    <t>Share of TCCC product at least 98%</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>VIS_COOLER_SAP</t>
-  </si>
-  <si>
-    <t>Visible cooler SAP</t>
-  </si>
-  <si>
-    <t>sum of atomic scores</t>
-  </si>
-  <si>
-    <t>Decimal.2</t>
-  </si>
-  <si>
-    <t>SESSION LEVEL</t>
-  </si>
-  <si>
-    <t>39
+    <t xml:space="preserve">Cooler is Visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХО виден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler fullness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХО Заполнен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of filled Coolers (scenes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler wo other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХО без посторонней продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of pure Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of TCCC product at least 98%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIS_COOLER_SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible cooler SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESSION LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39
 40
 41</t>
   </si>
   <si>
-    <t>CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t>CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t>Passed or Failed Value</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
-  </si>
-  <si>
-    <t>MenuC1
+    <t xml:space="preserve">CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed or Failed Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t>ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t>Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t>IMPU
+    <t xml:space="preserve">ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t>DEST
+    <t xml:space="preserve">DEST
 No_DEST</t>
   </si>
   <si>
-    <t>OCCASIONS</t>
-  </si>
-  <si>
-    <t>PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t>Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t>EO
+    <t xml:space="preserve">OCCASIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EO
 No_O_A</t>
   </si>
   <si>
-    <t>23
+    <t xml:space="preserve">23
 24
 26
 29</t>
   </si>
   <si>
-    <t>DO
+    <t xml:space="preserve">DO
 No_O_A</t>
   </si>
   <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanilla - 0.33L Glass</t>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -699,19 +696,27 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -724,442 +729,238 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1"/>
-    <col min="2" max="2" width="13.21875" style="1"/>
-    <col min="3" max="3" width="35.44140625" style="1"/>
-    <col min="4" max="5" width="13.33203125" style="1"/>
-    <col min="6" max="6" width="67" style="1"/>
-    <col min="7" max="7" width="67.5546875" style="1"/>
-    <col min="8" max="8" width="32.21875" style="1"/>
-    <col min="9" max="9" width="18.5546875" style="1"/>
-    <col min="10" max="10" width="11.109375" style="1"/>
-    <col min="11" max="11" width="15.88671875" style="1"/>
-    <col min="12" max="12" width="16.109375" style="1"/>
-    <col min="13" max="13" width="38.5546875" style="1"/>
-    <col min="14" max="14" width="38.5546875" style="2"/>
-    <col min="15" max="15" width="21.5546875" style="1"/>
-    <col min="16" max="16" width="18.44140625" style="1"/>
-    <col min="17" max="17" width="30.6640625" style="1"/>
-    <col min="18" max="18" width="25.88671875" style="1"/>
-    <col min="19" max="19" width="20.6640625" style="1"/>
-    <col min="20" max="20" width="14" style="1"/>
-    <col min="21" max="21" width="9.109375" style="1"/>
-    <col min="22" max="22" width="16.33203125" style="1"/>
-    <col min="23" max="23" width="20" style="1"/>
-    <col min="24" max="24" width="25" style="1"/>
-    <col min="25" max="25" width="24.33203125" style="1"/>
-    <col min="26" max="26" width="41.5546875" style="1"/>
-    <col min="27" max="27" width="22.44140625" style="1"/>
-    <col min="28" max="28" width="28" style="1"/>
-    <col min="29" max="29" width="28.33203125" style="1"/>
-    <col min="30" max="30" width="18.6640625" style="1"/>
-    <col min="31" max="31" width="16" style="3"/>
-    <col min="32" max="32" width="15.21875" style="1"/>
-    <col min="33" max="33" width="15.5546875" style="1"/>
-    <col min="34" max="34" width="33.109375" style="1"/>
-    <col min="35" max="35" width="10.6640625" style="1"/>
-    <col min="36" max="36" width="10.33203125" style="1"/>
-    <col min="37" max="37" width="23" style="2"/>
-    <col min="38" max="38" width="11.44140625" style="1"/>
-    <col min="39" max="1025" width="9.109375" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="6" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1076,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1324,10 +1125,10 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="7">
+      <c r="AI2" s="7" t="n">
         <v>300</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AJ2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AK2" s="10" t="s">
@@ -1335,8 +1136,8 @@
       </c>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1388,21 +1189,21 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="7">
+      <c r="AI3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="7" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1427,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
+      <c r="J4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="7"/>
@@ -1435,7 +1236,7 @@
       <c r="M4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="8" t="n">
         <v>50112128</v>
       </c>
       <c r="O4" s="7"/>
@@ -1464,25 +1265,25 @@
       <c r="AD4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="9">
-        <v>5.0021000000000003E-2</v>
+      <c r="AE4" s="9" t="n">
+        <v>0.050021</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="7">
+      <c r="AI4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="7">
+      <c r="AL4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1507,7 +1308,7 @@
         <v>52</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="J5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="7"/>
@@ -1515,7 +1316,7 @@
       <c r="M5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="8" t="n">
         <v>90375408</v>
       </c>
       <c r="O5" s="7"/>
@@ -1544,25 +1345,25 @@
       <c r="AD5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="9">
-        <v>5.0021000000000003E-2</v>
+      <c r="AE5" s="9" t="n">
+        <v>0.050021</v>
       </c>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="7">
+      <c r="AI5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="7">
+      <c r="AL5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1587,15 +1388,15 @@
         <v>52</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="J6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="N6" s="12">
+        <v>62</v>
+      </c>
+      <c r="N6" s="12" t="n">
         <v>87303377</v>
       </c>
       <c r="O6" s="7"/>
@@ -1624,25 +1425,25 @@
       <c r="AD6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="9">
-        <v>4.9993000000000003E-2</v>
+      <c r="AE6" s="9" t="n">
+        <v>0.049993</v>
       </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="7">
+      <c r="AI6" s="7" t="n">
         <v>803</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AJ6" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="7">
+      <c r="AL6" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1658,24 +1459,24 @@
         <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="J7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="8">
+        <v>63</v>
+      </c>
+      <c r="N7" s="8" t="n">
         <v>40822549</v>
       </c>
       <c r="O7" s="7"/>
@@ -1704,25 +1505,25 @@
       <c r="AD7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="9">
-        <v>4.9993000000000003E-2</v>
+      <c r="AE7" s="9" t="n">
+        <v>0.049993</v>
       </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="7">
+      <c r="AI7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="7">
+      <c r="AL7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1738,24 +1539,24 @@
         <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7">
+      <c r="J8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="8">
+        <v>65</v>
+      </c>
+      <c r="N8" s="8" t="n">
         <v>40822341</v>
       </c>
       <c r="O8" s="7"/>
@@ -1784,25 +1585,25 @@
       <c r="AD8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE8" s="9">
-        <v>4.9993000000000003E-2</v>
+      <c r="AE8" s="9" t="n">
+        <v>0.049993</v>
       </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7">
+      <c r="AI8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ8" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="7">
+      <c r="AL8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1818,24 +1619,24 @@
         <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="J9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="8">
+        <v>67</v>
+      </c>
+      <c r="N9" s="8" t="n">
         <v>50112135</v>
       </c>
       <c r="O9" s="7"/>
@@ -1864,25 +1665,25 @@
       <c r="AD9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE9" s="9">
-        <v>1.7989999999999999E-2</v>
+      <c r="AE9" s="9" t="n">
+        <v>0.01799</v>
       </c>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7">
+      <c r="AI9" s="7" t="n">
         <v>804</v>
       </c>
-      <c r="AJ9" s="7">
+      <c r="AJ9" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="7">
+      <c r="AL9" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1898,24 +1699,24 @@
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7">
+      <c r="J10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="8">
+        <v>69</v>
+      </c>
+      <c r="N10" s="8" t="n">
         <v>87126860</v>
       </c>
       <c r="O10" s="7"/>
@@ -1944,25 +1745,25 @@
       <c r="AD10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE10" s="9">
-        <v>1.7989999999999999E-2</v>
+      <c r="AE10" s="9" t="n">
+        <v>0.01799</v>
       </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7">
+      <c r="AI10" s="7" t="n">
         <v>805</v>
       </c>
-      <c r="AJ10" s="7">
+      <c r="AJ10" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="7">
+      <c r="AL10" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1975,13 +1776,13 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>47</v>
@@ -2016,21 +1817,21 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="7">
+      <c r="AI11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AJ11" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL11" s="7">
+        <v>74</v>
+      </c>
+      <c r="AL11" s="7" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2043,28 +1844,28 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7">
+      <c r="J12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -2092,25 +1893,25 @@
       <c r="AD12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE12" s="9">
-        <v>5.0055000000000002E-2</v>
+      <c r="AE12" s="9" t="n">
+        <v>0.050055</v>
       </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="7">
+      <c r="AI12" s="7" t="n">
         <v>801</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="7">
+      <c r="AL12" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2123,28 +1924,28 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7">
+      <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -2172,25 +1973,25 @@
       <c r="AD13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" s="9">
-        <v>2.3990000000000001E-2</v>
+      <c r="AE13" s="9" t="n">
+        <v>0.02399</v>
       </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7">
+      <c r="AI13" s="7" t="n">
         <v>802</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AJ13" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="7">
+      <c r="AL13" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2203,13 +2004,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>47</v>
@@ -2244,21 +2045,21 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7">
+      <c r="AI14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AJ14" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL14" s="7">
+        <v>85</v>
+      </c>
+      <c r="AL14" s="7" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2271,27 +2072,27 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="J15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="8">
+        <v>86</v>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>4650075420386</v>
       </c>
       <c r="O15" s="7"/>
@@ -2320,25 +2121,25 @@
       <c r="AD15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE15" s="9">
-        <v>4.999E-2</v>
+      <c r="AE15" s="9" t="n">
+        <v>0.04999</v>
       </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7">
+      <c r="AI15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="AJ15" s="7">
+      <c r="AJ15" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="7">
+      <c r="AL15" s="7" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2351,27 +2152,27 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7">
+      <c r="J16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="8">
+        <v>88</v>
+      </c>
+      <c r="N16" s="8" t="n">
         <v>4650075420362</v>
       </c>
       <c r="O16" s="7"/>
@@ -2400,25 +2201,25 @@
       <c r="AD16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="9">
-        <v>2.3989E-2</v>
+      <c r="AE16" s="9" t="n">
+        <v>0.023989</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="7">
+      <c r="AI16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AJ16" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="7">
+      <c r="AL16" s="7" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2431,27 +2232,27 @@
         <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7">
+      <c r="J17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="8">
+        <v>90</v>
+      </c>
+      <c r="N17" s="8" t="n">
         <v>4650075420423</v>
       </c>
       <c r="O17" s="7"/>
@@ -2480,25 +2281,25 @@
       <c r="AD17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE17" s="9">
-        <v>2.3989E-2</v>
+      <c r="AE17" s="9" t="n">
+        <v>0.023989</v>
       </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="7">
+      <c r="AI17" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="AJ17" s="7">
+      <c r="AJ17" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="7">
+      <c r="AL17" s="7" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>22</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2511,19 +2312,19 @@
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="J18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
@@ -2552,27 +2353,27 @@
       <c r="AD18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="9">
-        <v>2.3989E-2</v>
+      <c r="AE18" s="9" t="n">
+        <v>0.023989</v>
       </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7">
+      <c r="AI18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="AJ18" s="7">
+      <c r="AJ18" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL18" s="7">
+        <v>95</v>
+      </c>
+      <c r="AL18" s="7" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2585,27 +2386,27 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="J19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="8">
+        <v>96</v>
+      </c>
+      <c r="N19" s="8" t="n">
         <v>4650075420409</v>
       </c>
       <c r="O19" s="7"/>
@@ -2638,19 +2439,19 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="7">
+      <c r="AI19" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="7">
+      <c r="AL19" s="7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
         <v>24</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2663,27 +2464,27 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7">
+      <c r="J20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="8">
+        <v>98</v>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>4650075420508</v>
       </c>
       <c r="O20" s="7"/>
@@ -2716,19 +2517,19 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7">
+      <c r="AI20" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="7">
+      <c r="AL20" s="7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
         <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2741,27 +2542,27 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="J21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" s="8">
+        <v>100</v>
+      </c>
+      <c r="N21" s="8" t="n">
         <v>4650075420485</v>
       </c>
       <c r="O21" s="7"/>
@@ -2794,19 +2595,19 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="7">
+      <c r="AI21" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AJ21" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="7">
+      <c r="AL21" s="7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2819,27 +2620,27 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7">
+      <c r="J22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" s="8">
+        <v>102</v>
+      </c>
+      <c r="N22" s="8" t="n">
         <v>4650075420447</v>
       </c>
       <c r="O22" s="7"/>
@@ -2872,19 +2673,19 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7">
+      <c r="AI22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="7">
+      <c r="AL22" s="7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
         <v>27</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2897,13 +2698,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>47</v>
@@ -2938,21 +2739,21 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="7">
+      <c r="AI23" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="AJ23" s="7">
+      <c r="AJ23" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AK23" s="8">
+      <c r="AK23" s="8" t="n">
         <v>806</v>
       </c>
-      <c r="AL23" s="7">
+      <c r="AL23" s="7" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
         <v>28</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2965,27 +2766,27 @@
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7">
+      <c r="J24" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="8">
+        <v>106</v>
+      </c>
+      <c r="N24" s="8" t="n">
         <v>5449000148056</v>
       </c>
       <c r="O24" s="7"/>
@@ -3014,25 +2815,25 @@
       <c r="AD24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="9">
-        <v>1.7996999999999999E-2</v>
+      <c r="AE24" s="9" t="n">
+        <v>0.017997</v>
       </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="7">
+      <c r="AI24" s="7" t="n">
         <v>806</v>
       </c>
-      <c r="AJ24" s="7">
+      <c r="AJ24" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="7">
+      <c r="AL24" s="7" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3046,10 +2847,10 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>40</v>
@@ -3080,19 +2881,19 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7">
+      <c r="AI25" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AJ25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AK25" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL25" s="7"/>
     </row>
-    <row r="26" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3105,50 +2906,50 @@
         <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="J26" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -3156,25 +2957,25 @@
       <c r="AD26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="9">
-        <v>0.16666600000000001</v>
+      <c r="AE26" s="9" t="n">
+        <v>0.166666</v>
       </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="7">
+      <c r="AI26" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="AJ26" s="7">
+      <c r="AJ26" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="7">
+      <c r="AL26" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
         <v>32</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3187,19 +2988,19 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7">
+      <c r="J27" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="7"/>
@@ -3219,10 +3020,10 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
@@ -3230,27 +3031,27 @@
       <c r="AD27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE27" s="9">
-        <v>8.3333000000000004E-2</v>
+      <c r="AE27" s="9" t="n">
+        <v>0.083333</v>
       </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="7">
+      <c r="AI27" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="AJ27" s="7">
+      <c r="AJ27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AK27" s="8">
+      <c r="AK27" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AL27" s="7">
+      <c r="AL27" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3263,50 +3064,50 @@
         <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7">
+      <c r="J28" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -3318,19 +3119,19 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="7">
+      <c r="AI28" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AJ28" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="7">
+      <c r="AL28" s="7" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
         <v>34</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3343,19 +3144,19 @@
         <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7">
+      <c r="J29" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
@@ -3375,10 +3176,10 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -3386,27 +3187,27 @@
       <c r="AD29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE29" s="9">
-        <v>8.3333000000000004E-2</v>
+      <c r="AE29" s="9" t="n">
+        <v>0.083333</v>
       </c>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="7">
+      <c r="AI29" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="AJ29" s="7">
+      <c r="AJ29" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL29" s="7">
+        <v>130</v>
+      </c>
+      <c r="AL29" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
         <v>35</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3419,29 +3220,29 @@
         <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7">
+      <c r="J30" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -3450,17 +3251,17 @@
         <v>53</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -3472,19 +3273,19 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="7">
+      <c r="AI30" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="AJ30" s="7">
+      <c r="AJ30" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="7">
+      <c r="AL30" s="7" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3494,22 +3295,22 @@
         <v>39</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7">
+      <c r="J31" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
@@ -3536,27 +3337,27 @@
       <c r="AD31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="9">
+      <c r="AE31" s="9" t="n">
         <v>0.12</v>
       </c>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="7">
+      <c r="AI31" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="AJ31" s="7">
+      <c r="AJ31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AK31" s="8">
+      <c r="AK31" s="8" t="n">
         <v>900</v>
       </c>
-      <c r="AL31" s="7">
+      <c r="AL31" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3566,53 +3367,53 @@
         <v>39</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7">
+      <c r="J32" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>53</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -3624,19 +3425,19 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7">
+      <c r="AI32" s="7" t="n">
         <v>900</v>
       </c>
-      <c r="AJ32" s="7">
+      <c r="AJ32" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="7">
+      <c r="AL32" s="7" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
         <v>42</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -3650,10 +3451,10 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>40</v>
@@ -3684,19 +3485,19 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7">
+      <c r="AI33" s="7" t="n">
         <v>310</v>
       </c>
-      <c r="AJ33" s="7">
+      <c r="AJ33" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AK33" s="8">
+      <c r="AK33" s="8" t="n">
         <v>312</v>
       </c>
       <c r="AL33" s="7"/>
     </row>
-    <row r="34" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
         <v>43</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3710,10 +3511,10 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>40</v>
@@ -3744,21 +3545,21 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7">
+      <c r="AI34" s="7" t="n">
         <v>312</v>
       </c>
-      <c r="AJ34" s="7">
+      <c r="AJ34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AK34" s="8">
-        <v>38</v>
-      </c>
-      <c r="AL34" s="7">
+      <c r="AK34" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL34" s="7" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="n">
         <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -3768,22 +3569,22 @@
         <v>39</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="7">
+      <c r="J35" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K35" s="7"/>
@@ -3801,7 +3602,7 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -3810,27 +3611,27 @@
       <c r="AD35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE35" s="9">
-        <v>4.6668000000000001E-2</v>
+      <c r="AE35" s="9" t="n">
+        <v>0.046668</v>
       </c>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="7">
-        <v>38</v>
-      </c>
-      <c r="AJ35" s="7">
+      <c r="AI35" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ35" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL35" s="7">
+        <v>153</v>
+      </c>
+      <c r="AL35" s="7" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
         <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3840,22 +3641,22 @@
         <v>39</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="7">
+      <c r="J36" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="7"/>
@@ -3870,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -3880,7 +3681,7 @@
         <v>55</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3892,19 +3693,19 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="7">
+      <c r="AI36" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="AJ36" s="7">
+      <c r="AJ36" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="AL36" s="7" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="n">
         <v>46</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3914,31 +3715,31 @@
         <v>39</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="7">
+      <c r="J37" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -3948,14 +3749,14 @@
         <v>53</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -3968,21 +3769,21 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI37" s="7">
+        <v>165</v>
+      </c>
+      <c r="AI37" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="AJ37" s="7">
+      <c r="AJ37" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="AL37" s="7" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
         <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -3992,31 +3793,31 @@
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7">
+      <c r="J38" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4026,14 +3827,14 @@
         <v>53</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -4046,21 +3847,21 @@
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI38" s="7">
+        <v>169</v>
+      </c>
+      <c r="AI38" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="AJ38" s="7">
+      <c r="AJ38" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="AL38" s="7" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
         <v>48</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4070,22 +3871,22 @@
         <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -4098,7 +3899,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -4114,17 +3915,17 @@
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
-      <c r="AI39" s="7">
+      <c r="AI39" s="7" t="n">
         <v>43</v>
       </c>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL39" s="7"/>
     </row>
-    <row r="40" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
         <v>49</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -4134,31 +3935,31 @@
         <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -4166,7 +3967,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -4182,17 +3983,17 @@
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-      <c r="AI40" s="7">
+      <c r="AI40" s="7" t="n">
         <v>44</v>
       </c>
       <c r="AJ40" s="7"/>
-      <c r="AK40" s="8">
+      <c r="AK40" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
         <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -4202,31 +4003,31 @@
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -4234,7 +4035,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4250,17 +4051,17 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
-      <c r="AI41" s="7">
+      <c r="AI41" s="7" t="n">
         <v>45</v>
       </c>
       <c r="AJ41" s="7"/>
-      <c r="AK41" s="8">
+      <c r="AK41" s="8" t="n">
         <v>24</v>
       </c>
       <c r="AL41" s="7"/>
     </row>
-    <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="n">
         <v>51</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -4270,31 +4071,31 @@
         <v>39</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -4302,7 +4103,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -4318,17 +4119,17 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
-      <c r="AI42" s="7">
+      <c r="AI42" s="7" t="n">
         <v>46</v>
       </c>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="8">
+      <c r="AK42" s="8" t="n">
         <v>26</v>
       </c>
       <c r="AL42" s="7"/>
     </row>
-    <row r="43" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
         <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -4338,31 +4139,31 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4370,7 +4171,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4386,17 +4187,17 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="7">
+      <c r="AI43" s="7" t="n">
         <v>49</v>
       </c>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL43" s="7"/>
     </row>
-    <row r="44" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="n">
         <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4406,31 +4207,31 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -4438,7 +4239,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -4454,17 +4255,17 @@
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="7">
+      <c r="AI44" s="7" t="n">
         <v>50</v>
       </c>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL44" s="7"/>
     </row>
-    <row r="45" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="n">
         <v>55</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4474,20 +4275,20 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -4500,7 +4301,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4516,7 +4317,7 @@
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7">
+      <c r="AI45" s="7" t="n">
         <v>904</v>
       </c>
       <c r="AJ45" s="7"/>
@@ -4524,71 +4325,87 @@
       <c r="AL45" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <autoFilter ref="A1:AL45"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="M1" s="0" t="s">
         <v>202</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -477,10 +478,7 @@
     <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta , SmartWater</t>
+    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater, Schweppes</t>
   </si>
   <si>
     <t xml:space="preserve">Mixability, Glass, Mocktails</t>
@@ -925,50 +923,50 @@
   </sheetPr>
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="N32" activeCellId="0" sqref="N32:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -3401,16 +3399,16 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="13" t="s">
         <v>141</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>53</v>
@@ -3426,7 +3424,7 @@
         <v>117</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -3464,10 +3462,10 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>40</v>
@@ -3524,10 +3522,10 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>40</v>
@@ -3585,16 +3583,16 @@
         <v>135</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="n">
@@ -3615,7 +3613,7 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -3637,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL35" s="7" t="n">
         <v>312</v>
@@ -3657,16 +3655,16 @@
         <v>135</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="n">
@@ -3684,7 +3682,7 @@
         <v>53</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -3694,7 +3692,7 @@
         <v>55</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3731,16 +3729,16 @@
         <v>135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="n">
@@ -3749,10 +3747,10 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -3762,14 +3760,14 @@
         <v>53</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -3782,7 +3780,7 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI37" s="7" t="n">
         <v>40</v>
@@ -3809,16 +3807,16 @@
         <v>135</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="n">
@@ -3827,10 +3825,10 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -3840,14 +3838,14 @@
         <v>53</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -3860,7 +3858,7 @@
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI38" s="7" t="n">
         <v>41</v>
@@ -3884,22 +3882,22 @@
         <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -3912,7 +3910,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3933,7 +3931,7 @@
       </c>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL39" s="7"/>
     </row>
@@ -3948,31 +3946,31 @@
         <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -3980,7 +3978,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -4016,31 +4014,31 @@
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="H41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -4048,7 +4046,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4084,31 +4082,31 @@
         <v>39</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="H42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -4116,7 +4114,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -4152,31 +4150,31 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="H43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4184,7 +4182,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4205,7 +4203,7 @@
       </c>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL43" s="7"/>
     </row>
@@ -4220,31 +4218,31 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="H44" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -4252,7 +4250,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -4273,7 +4271,7 @@
       </c>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL44" s="7"/>
     </row>
@@ -4288,20 +4286,20 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -4314,7 +4312,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4358,7 +4356,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N32:Q32 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4386,10 +4384,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>33</v>
@@ -4398,18 +4396,18 @@
         <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -478,7 +478,7 @@
     <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater, Schweppes</t>
+    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater</t>
   </si>
   <si>
     <t xml:space="preserve">Mixability, Glass, Mocktails</t>
@@ -720,7 +720,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +737,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -783,7 +789,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -837,6 +843,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,10 +933,10 @@
   </sheetPr>
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N32" activeCellId="0" sqref="N32:Q32"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="R35" activeCellId="0" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -943,10 +953,10 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="55.7570850202429"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="55.7570850202429"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
@@ -3399,12 +3409,12 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="14" t="s">
         <v>141</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="14" t="s">
         <v>141</v>
       </c>
       <c r="R32" s="7" t="s">
@@ -4356,7 +4366,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N32:Q32 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -478,7 +479,7 @@
     <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater</t>
+    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater, Schweppes</t>
   </si>
   <si>
     <t xml:space="preserve">Mixability, Glass, Mocktails</t>
@@ -936,49 +937,49 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="R35" activeCellId="0" sqref="R35"/>
+      <selection pane="bottomLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="55.7570850202429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="55.7570850202429"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="71.8421052631579"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.4210526315789"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="58.2712550607288"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="58.2712550607288"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="23.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="30.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="19.8542510121458"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="16.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="16.5668016194332"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4371,7 +4372,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD05D27-E542-4310-A568-69791B5C7952}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CC35A-A528-491B-BB36-83E9C996BDFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9024" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>SCENES</t>
   </si>
   <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
     <t>Cooler fullness</t>
   </si>
   <si>
@@ -682,6 +676,12 @@
   </si>
   <si>
     <t>Menu, Menu Insert, Other Menu Activation, SS_Menu, SS_Menu Insert, SS_Other Menu Activation</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
   </si>
 </sst>
 </file>
@@ -1174,9 +1174,9 @@
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,12 +1520,12 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE4" s="6">
         <v>5.0021000000000003E-2</v>
@@ -1561,10 +1561,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>52</v>
@@ -1576,7 +1576,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="5">
         <v>90375408</v>
@@ -1600,12 +1600,12 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE5" s="6">
         <v>5.0021000000000003E-2</v>
@@ -1641,10 +1641,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>52</v>
@@ -1656,7 +1656,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="5">
         <v>87303377</v>
@@ -1680,12 +1680,12 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="6">
         <v>4.9993000000000003E-2</v>
@@ -1721,10 +1721,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>52</v>
@@ -1736,7 +1736,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5">
         <v>40822549</v>
@@ -1760,12 +1760,12 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="6">
         <v>4.9993000000000003E-2</v>
@@ -1801,10 +1801,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>52</v>
@@ -1816,7 +1816,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="5">
         <v>40822341</v>
@@ -1840,12 +1840,12 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE8" s="6">
         <v>4.9993000000000003E-2</v>
@@ -1881,10 +1881,10 @@
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>52</v>
@@ -1896,7 +1896,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="5">
         <v>50112135</v>
@@ -1920,12 +1920,12 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE9" s="6">
         <v>1.7989999999999999E-2</v>
@@ -1961,10 +1961,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>52</v>
@@ -1976,7 +1976,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="5">
         <v>87126860</v>
@@ -2000,12 +2000,12 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE10" s="6">
         <v>1.7989999999999999E-2</v>
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>47</v>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL11" s="4">
         <v>300</v>
@@ -2106,13 +2106,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>52</v>
@@ -2124,10 +2124,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2148,12 +2148,12 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE12" s="6">
         <v>5.0055000000000002E-2</v>
@@ -2186,13 +2186,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>52</v>
@@ -2204,10 +2204,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2228,12 +2228,12 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE13" s="6">
         <v>2.3990000000000001E-2</v>
@@ -2266,13 +2266,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>47</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL14" s="4">
         <v>300</v>
@@ -2334,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>52</v>
@@ -2352,7 +2352,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="5">
         <v>4650075420386</v>
@@ -2376,12 +2376,12 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE15" s="6">
         <v>4.999E-2</v>
@@ -2414,13 +2414,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>52</v>
@@ -2432,7 +2432,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="5">
         <v>4650075420362</v>
@@ -2456,12 +2456,12 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE16" s="6">
         <v>2.3989E-2</v>
@@ -2494,13 +2494,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>52</v>
@@ -2512,7 +2512,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="5">
         <v>4650075420423</v>
@@ -2536,12 +2536,12 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE17" s="6">
         <v>2.3989E-2</v>
@@ -2574,16 +2574,16 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
@@ -2608,12 +2608,12 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE18" s="6">
         <v>2.3989E-2</v>
@@ -2628,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="AK18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL18" s="4">
         <v>12</v>
@@ -2648,13 +2648,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>52</v>
@@ -2666,7 +2666,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="5">
         <v>4650075420409</v>
@@ -2690,12 +2690,12 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="4"/>
@@ -2726,13 +2726,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>52</v>
@@ -2744,7 +2744,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N20" s="5">
         <v>4650075420508</v>
@@ -2768,12 +2768,12 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="4"/>
@@ -2804,13 +2804,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>52</v>
@@ -2822,7 +2822,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N21" s="5">
         <v>4650075420485</v>
@@ -2846,12 +2846,12 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="4"/>
@@ -2882,13 +2882,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>52</v>
@@ -2900,7 +2900,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N22" s="5">
         <v>4650075420447</v>
@@ -2924,12 +2924,12 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="4"/>
@@ -2960,13 +2960,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>47</v>
@@ -3028,13 +3028,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>52</v>
@@ -3046,7 +3046,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N24" s="5">
         <v>5449000148056</v>
@@ -3070,12 +3070,12 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE24" s="6">
         <v>1.7996999999999999E-2</v>
@@ -3109,10 +3109,10 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="AK25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL25" s="4"/>
     </row>
@@ -3168,13 +3168,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>52</v>
@@ -3186,38 +3186,38 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE26" s="6">
         <v>0.16666600000000001</v>
@@ -3250,16 +3250,16 @@
         <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -3282,16 +3282,16 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE27" s="6">
         <v>8.3333000000000004E-2</v>
@@ -3326,13 +3326,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>52</v>
@@ -3344,38 +3344,38 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="4"/>
@@ -3406,16 +3406,16 @@
         <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="H29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
@@ -3438,16 +3438,16 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE29" s="6">
         <v>8.3333000000000004E-2</v>
@@ -3462,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="AK29" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL29" s="4">
         <v>400</v>
@@ -3482,13 +3482,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>52</v>
@@ -3501,10 +3501,10 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -3513,23 +3513,23 @@
         <v>53</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE30" s="6"/>
       <c r="AF30" s="4"/>
@@ -3557,19 +3557,19 @@
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="H31" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
@@ -3597,7 +3597,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE31" s="6">
         <v>0.12</v>
@@ -3629,16 +3629,16 @@
         <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="F32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>52</v>
@@ -3651,37 +3651,37 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="R32" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="4"/>
@@ -3713,10 +3713,10 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>40</v>
@@ -3773,10 +3773,10 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>40</v>
@@ -3831,19 +3831,19 @@
         <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
@@ -3864,14 +3864,14 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE35" s="6">
         <v>4.6668000000000001E-2</v>
@@ -3886,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="AK35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL35" s="4">
         <v>312</v>
@@ -3903,19 +3903,19 @@
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
@@ -3933,7 +3933,7 @@
         <v>53</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -3943,13 +3943,13 @@
         <v>55</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE36" s="6"/>
       <c r="AF36" s="4"/>
@@ -3977,19 +3977,19 @@
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -3998,10 +3998,10 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -4011,27 +4011,27 @@
         <v>53</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE37" s="6"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI37" s="4">
         <v>40</v>
@@ -4055,19 +4055,19 @@
         <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
@@ -4076,10 +4076,10 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -4089,27 +4089,27 @@
         <v>53</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI38" s="4">
         <v>41</v>
@@ -4133,22 +4133,22 @@
         <v>39</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -4161,7 +4161,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL39" s="4"/>
     </row>
@@ -4197,31 +4197,31 @@
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -4229,7 +4229,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
@@ -4265,31 +4265,31 @@
         <v>39</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -4297,7 +4297,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -4333,31 +4333,31 @@
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -4365,7 +4365,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -4401,31 +4401,31 @@
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -4433,7 +4433,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AL43" s="4"/>
     </row>
@@ -4469,31 +4469,31 @@
         <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -4501,7 +4501,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL44" s="4"/>
     </row>
@@ -4537,20 +4537,20 @@
         <v>39</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4563,7 +4563,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -4621,10 +4621,10 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
         <v>33</v>
@@ -4633,18 +4633,18 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" t="s">
         <v>196</v>
-      </c>
-      <c r="L1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CC35A-A528-491B-BB36-83E9C996BDFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894D240-9565-4E9B-9BFD-B3DE9C4523A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="__" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName name="_" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="__" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="210">
   <si>
     <t>Sorting</t>
   </si>
@@ -682,6 +682,24 @@
   </si>
   <si>
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -692,7 +710,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,16 +733,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -747,12 +778,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,6 +832,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,58 +1223,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK45"/>
+  <dimension ref="A1:AMM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="8"/>
+    <col min="1" max="1" width="13.28515625" style="8"/>
     <col min="2" max="2" width="14" style="8"/>
-    <col min="3" max="3" width="37.88671875" style="8"/>
+    <col min="3" max="3" width="37.85546875" style="8"/>
     <col min="4" max="5" width="14" style="8"/>
-    <col min="6" max="6" width="71.88671875" style="8"/>
-    <col min="7" max="7" width="72.44140625" style="8"/>
-    <col min="8" max="8" width="34.21875" style="8"/>
-    <col min="9" max="9" width="19.6640625" style="8"/>
-    <col min="10" max="10" width="11.5546875" style="8"/>
-    <col min="11" max="11" width="16.88671875" style="8"/>
-    <col min="12" max="12" width="17.109375" style="8"/>
-    <col min="13" max="13" width="41.44140625" style="8"/>
-    <col min="14" max="14" width="58.21875" style="11"/>
-    <col min="15" max="15" width="23.109375" style="8"/>
-    <col min="16" max="16" width="19.5546875" style="8"/>
-    <col min="17" max="17" width="58.21875" style="8"/>
-    <col min="18" max="18" width="27.44140625" style="8"/>
-    <col min="19" max="19" width="21.88671875" style="8"/>
-    <col min="20" max="20" width="14.5546875" style="8"/>
-    <col min="21" max="21" width="9.5546875" style="8"/>
-    <col min="22" max="22" width="17.109375" style="8"/>
-    <col min="23" max="23" width="21.109375" style="8"/>
-    <col min="24" max="24" width="26.5546875" style="8"/>
-    <col min="25" max="25" width="26.109375" style="8"/>
-    <col min="26" max="26" width="44.5546875" style="8"/>
-    <col min="27" max="27" width="23.88671875" style="8"/>
-    <col min="28" max="28" width="29.6640625" style="8"/>
-    <col min="29" max="29" width="30.109375" style="8"/>
-    <col min="30" max="30" width="19.88671875" style="8"/>
-    <col min="31" max="31" width="17" style="12"/>
-    <col min="32" max="32" width="16.33203125" style="8"/>
-    <col min="33" max="33" width="16.5546875" style="8"/>
-    <col min="34" max="34" width="35.5546875" style="8"/>
-    <col min="35" max="35" width="11.109375" style="8"/>
-    <col min="36" max="36" width="10.88671875" style="8"/>
-    <col min="37" max="37" width="24.21875" style="11"/>
-    <col min="38" max="38" width="11.88671875" style="8"/>
-    <col min="39" max="1025" width="9.5546875" style="8"/>
-    <col min="1026" max="16384" width="8.88671875" style="9"/>
+    <col min="6" max="6" width="71.85546875" style="8"/>
+    <col min="7" max="7" width="72.42578125" style="8"/>
+    <col min="8" max="8" width="34.28515625" style="8"/>
+    <col min="9" max="9" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="8"/>
+    <col min="12" max="12" width="11.5703125" style="8"/>
+    <col min="13" max="13" width="16.85546875" style="8"/>
+    <col min="14" max="14" width="17.140625" style="8"/>
+    <col min="15" max="15" width="41.42578125" style="8"/>
+    <col min="16" max="16" width="58.28515625" style="11"/>
+    <col min="17" max="17" width="23.140625" style="8"/>
+    <col min="18" max="18" width="19.5703125" style="8"/>
+    <col min="19" max="19" width="58.28515625" style="8"/>
+    <col min="20" max="20" width="27.42578125" style="8"/>
+    <col min="21" max="21" width="21.85546875" style="8"/>
+    <col min="22" max="22" width="14.5703125" style="8"/>
+    <col min="23" max="23" width="9.5703125" style="8"/>
+    <col min="24" max="24" width="17.140625" style="8"/>
+    <col min="25" max="25" width="21.140625" style="8"/>
+    <col min="26" max="26" width="26.5703125" style="8"/>
+    <col min="27" max="27" width="26.140625" style="8"/>
+    <col min="28" max="28" width="44.5703125" style="8"/>
+    <col min="29" max="29" width="23.85546875" style="8"/>
+    <col min="30" max="30" width="29.7109375" style="8"/>
+    <col min="31" max="31" width="30.140625" style="8"/>
+    <col min="32" max="32" width="19.85546875" style="8"/>
+    <col min="33" max="33" width="17" style="12"/>
+    <col min="34" max="34" width="16.28515625" style="8"/>
+    <col min="35" max="35" width="16.5703125" style="8"/>
+    <col min="36" max="36" width="35.5703125" style="8"/>
+    <col min="37" max="37" width="11.140625" style="8"/>
+    <col min="38" max="38" width="10.85546875" style="8"/>
+    <col min="39" max="39" width="24.28515625" style="11"/>
+    <col min="40" max="40" width="11.85546875" style="8"/>
+    <col min="41" max="1027" width="9.5703125" style="8"/>
+    <col min="1028" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,98 +1301,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1366,9 +1426,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1383,22 +1443,24 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="6"/>
+      <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
+      <c r="AG2" s="6"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="4">
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4">
         <v>300</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AL2" s="4">
         <v>1</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1423,14 +1485,18 @@
       <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1444,27 +1510,29 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
+      <c r="AG3" s="6"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="4">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4">
         <v>1</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AL3" s="4">
         <v>2</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AN3" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1490,61 +1558,63 @@
         <v>52</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="5">
         <v>50112128</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AG4" s="6">
         <v>5.0021000000000003E-2</v>
       </c>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="4">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4">
         <v>2</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AL4" s="4">
         <v>3</v>
       </c>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="4">
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1570,61 +1640,63 @@
         <v>52</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="5">
+      <c r="P5" s="5">
         <v>90375408</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AG5" s="6">
         <v>5.0021000000000003E-2</v>
       </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4">
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4">
         <v>4</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AL5" s="4">
         <v>3</v>
       </c>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="4">
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1650,61 +1722,63 @@
         <v>52</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="5">
         <v>87303377</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AG6" s="6">
         <v>4.9993000000000003E-2</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="4">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4">
         <v>803</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AL6" s="4">
         <v>3</v>
       </c>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="4">
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1730,61 +1804,63 @@
         <v>52</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="5">
         <v>40822549</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AG7" s="6">
         <v>4.9993000000000003E-2</v>
       </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4">
         <v>5</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AL7" s="4">
         <v>3</v>
       </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="4">
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1810,61 +1886,63 @@
         <v>52</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="5">
+      <c r="P8" s="5">
         <v>40822341</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AG8" s="6">
         <v>4.9993000000000003E-2</v>
       </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4">
         <v>3</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AL8" s="4">
         <v>3</v>
       </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="4">
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1890,61 +1968,63 @@
         <v>52</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="5">
+      <c r="P9" s="5">
         <v>50112135</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4" t="s">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AG9" s="6">
         <v>1.7989999999999999E-2</v>
       </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="4">
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4">
         <v>804</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AL9" s="4">
         <v>3</v>
       </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="4">
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1970,61 +2050,63 @@
         <v>52</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="5">
+      <c r="P10" s="5">
         <v>87126860</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AG10" s="6">
         <v>1.7989999999999999E-2</v>
       </c>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="4">
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4">
         <v>805</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AL10" s="4">
         <v>3</v>
       </c>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="4">
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>13</v>
       </c>
@@ -2049,14 +2131,18 @@
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2064,35 +2150,37 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4" t="s">
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="AG11" s="6"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="4">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4">
         <v>9</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AL11" s="4">
         <v>2</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AM11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AN11" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>14</v>
       </c>
@@ -2118,61 +2206,63 @@
         <v>52</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4" t="s">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4" t="s">
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AG12" s="6">
         <v>5.0055000000000002E-2</v>
       </c>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="4">
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4">
         <v>801</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AL12" s="4">
         <v>3</v>
       </c>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="4">
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>15</v>
       </c>
@@ -2198,61 +2288,63 @@
         <v>52</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4" t="s">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4" t="s">
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AG13" s="6">
         <v>2.3990000000000001E-2</v>
       </c>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="4">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4">
         <v>802</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AL13" s="4">
         <v>3</v>
       </c>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="4">
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>18</v>
       </c>
@@ -2277,14 +2369,18 @@
       <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2292,35 +2388,37 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+      <c r="AG14" s="6"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4">
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4">
         <v>12</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AL14" s="4">
         <v>2</v>
       </c>
-      <c r="AK14" s="7" t="s">
+      <c r="AM14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AN14" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>19</v>
       </c>
@@ -2346,61 +2444,63 @@
         <v>52</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="5">
+      <c r="P15" s="5">
         <v>4650075420386</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4" t="s">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4" t="s">
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AG15" s="6">
         <v>4.999E-2</v>
       </c>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4">
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4">
         <v>13</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AL15" s="4">
         <v>3</v>
       </c>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="4">
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>20</v>
       </c>
@@ -2426,61 +2526,63 @@
         <v>52</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="5">
+      <c r="P16" s="5">
         <v>4650075420362</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4" t="s">
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AG16" s="6">
         <v>2.3989E-2</v>
       </c>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4">
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4">
         <v>14</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AL16" s="4">
         <v>3</v>
       </c>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="4">
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>21</v>
       </c>
@@ -2506,61 +2608,63 @@
         <v>52</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="5">
+      <c r="P17" s="5">
         <v>4650075420423</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4" t="s">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4" t="s">
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AG17" s="6">
         <v>2.3989E-2</v>
       </c>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="4">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4">
         <v>18</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AL17" s="4">
         <v>3</v>
       </c>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="4">
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>22</v>
       </c>
@@ -2586,55 +2690,57 @@
         <v>93</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4" t="s">
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AG18" s="6">
         <v>2.3989E-2</v>
       </c>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-      <c r="AI18" s="4">
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4">
         <v>16</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AL18" s="4">
         <v>3</v>
       </c>
-      <c r="AK18" s="7" t="s">
+      <c r="AM18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AN18" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>23</v>
       </c>
@@ -2660,59 +2766,61 @@
         <v>52</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="5">
+      <c r="P19" s="5">
         <v>4650075420409</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4" t="s">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4" t="s">
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="AG19" s="6"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4">
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4">
         <v>15</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AL19" s="4">
         <v>4</v>
       </c>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="4">
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>24</v>
       </c>
@@ -2738,59 +2846,61 @@
         <v>52</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="5">
+      <c r="P20" s="5">
         <v>4650075420508</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4" t="s">
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4" t="s">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
+      <c r="AG20" s="6"/>
       <c r="AH20" s="4"/>
-      <c r="AI20" s="4">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4">
         <v>17</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AL20" s="4">
         <v>4</v>
       </c>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="4">
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>25</v>
       </c>
@@ -2816,59 +2926,61 @@
         <v>52</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="5">
         <v>4650075420485</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4" t="s">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4" t="s">
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4">
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4">
         <v>19</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AL21" s="4">
         <v>4</v>
       </c>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="4">
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>26</v>
       </c>
@@ -2894,59 +3006,61 @@
         <v>52</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="5">
+      <c r="P22" s="5">
         <v>4650075420447</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4" t="s">
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
+      <c r="AG22" s="6"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4">
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4">
         <v>20</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AL22" s="4">
         <v>4</v>
       </c>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="4">
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>27</v>
       </c>
@@ -2971,14 +3085,18 @@
       <c r="H23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -2986,35 +3104,37 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4" t="s">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4" t="s">
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="6"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="4">
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4">
         <v>21</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AL23" s="4">
         <v>2</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AM23" s="5">
         <v>806</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AN23" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>28</v>
       </c>
@@ -3040,61 +3160,63 @@
         <v>52</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="5">
+      <c r="P24" s="5">
         <v>5449000148056</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4" t="s">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4" t="s">
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4" t="s">
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AG24" s="6">
         <v>1.7996999999999999E-2</v>
       </c>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="4">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4">
         <v>806</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AL24" s="4">
         <v>3</v>
       </c>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="4">
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -3122,9 +3244,9 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -3139,22 +3261,24 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="6"/>
+      <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AG25" s="6"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="4">
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4">
         <v>400</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AL25" s="4">
         <v>1</v>
       </c>
-      <c r="AK25" s="7" t="s">
+      <c r="AM25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AL25" s="4"/>
+      <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>31</v>
       </c>
@@ -3180,63 +3304,65 @@
         <v>52</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="4" t="s">
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AG26" s="6">
         <v>0.16666600000000001</v>
       </c>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="4">
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4">
         <v>23</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AL26" s="4">
         <v>2</v>
       </c>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="4">
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>32</v>
       </c>
@@ -3261,58 +3387,60 @@
       <c r="H27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="4" t="s">
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AG27" s="6">
         <v>8.3333000000000004E-2</v>
       </c>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="4">
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4">
         <v>24</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AL27" s="4">
         <v>2</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AM27" s="5">
         <v>25</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AN27" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>33</v>
       </c>
@@ -3338,61 +3466,63 @@
         <v>52</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4" t="s">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4" t="s">
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
+      <c r="AG28" s="6"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="4">
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4">
         <v>25</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AL28" s="4">
         <v>3</v>
       </c>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="4">
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>34</v>
       </c>
@@ -3417,58 +3547,60 @@
       <c r="H29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
         <v>1</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AB29" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4" t="s">
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AG29" s="6">
         <v>8.3333000000000004E-2</v>
       </c>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-      <c r="AI29" s="4">
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4">
         <v>26</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AL29" s="4">
         <v>2</v>
       </c>
-      <c r="AK29" s="7" t="s">
+      <c r="AM29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AN29" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>35</v>
       </c>
@@ -3494,59 +3626,61 @@
         <v>52</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="V30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AB30" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4" t="s">
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
+      <c r="AG30" s="6"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="4">
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4">
         <v>27</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AL30" s="4">
         <v>3</v>
       </c>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="4">
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -3571,23 +3705,23 @@
       <c r="H31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
         <v>1</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3596,29 +3730,31 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4" t="s">
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AG31" s="6">
         <v>0.12</v>
       </c>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-      <c r="AI31" s="4">
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4">
         <v>29</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AL31" s="4">
         <v>2</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AM31" s="5">
         <v>900</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AN31" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -3644,61 +3780,63 @@
         <v>52</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
         <v>1</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="U32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="V32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="4" t="s">
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AB32" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4" t="s">
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
+      <c r="AG32" s="6"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="4">
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4">
         <v>900</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AL32" s="4">
         <v>3</v>
       </c>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="4">
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42</v>
       </c>
@@ -3726,9 +3864,9 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
@@ -3743,22 +3881,24 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
-      <c r="AE33" s="6"/>
+      <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
+      <c r="AG33" s="6"/>
       <c r="AH33" s="4"/>
-      <c r="AI33" s="4">
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4">
         <v>310</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AL33" s="4">
         <v>1</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AM33" s="5">
         <v>312</v>
       </c>
-      <c r="AL33" s="4"/>
+      <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43</v>
       </c>
@@ -3786,9 +3926,9 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -3803,24 +3943,26 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
-      <c r="AE34" s="6"/>
+      <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
+      <c r="AG34" s="6"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4">
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4">
         <v>312</v>
       </c>
-      <c r="AJ34" s="4">
+      <c r="AL34" s="4">
         <v>1</v>
       </c>
-      <c r="AK34" s="5">
-        <v>38</v>
-      </c>
-      <c r="AL34" s="4">
+      <c r="AM34" s="5">
+        <v>38</v>
+      </c>
+      <c r="AN34" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44</v>
       </c>
@@ -3846,15 +3988,15 @@
         <v>146</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="5"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -3863,36 +4005,38 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4" t="s">
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4" t="s">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE35" s="6">
+      <c r="AG35" s="6">
         <v>4.6668000000000001E-2</v>
       </c>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="4">
-        <v>38</v>
-      </c>
-      <c r="AJ35" s="4">
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4">
+        <v>38</v>
+      </c>
+      <c r="AL35" s="4">
         <v>2</v>
       </c>
-      <c r="AK35" s="7" t="s">
+      <c r="AM35" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AN35" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45</v>
       </c>
@@ -3918,55 +4062,57 @@
         <v>151</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="5"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="V36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4" t="s">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z36" s="4" t="s">
+      <c r="AB36" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4" t="s">
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
+      <c r="AG36" s="6"/>
       <c r="AH36" s="4"/>
-      <c r="AI36" s="4">
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4">
         <v>39</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AL36" s="4">
         <v>3</v>
       </c>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="4">
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>46</v>
       </c>
@@ -3992,59 +4138,61 @@
         <v>155</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T37" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="4" t="s">
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="4" t="s">
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4" t="s">
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AI37" s="4">
+      <c r="AK37" s="4">
         <v>40</v>
       </c>
-      <c r="AJ37" s="4">
+      <c r="AL37" s="4">
         <v>3</v>
       </c>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="4">
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>47</v>
       </c>
@@ -4070,59 +4218,61 @@
         <v>162</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="V38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="4" t="s">
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="4" t="s">
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4" t="s">
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AI38" s="4">
+      <c r="AK38" s="4">
         <v>41</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AL38" s="4">
         <v>3</v>
       </c>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="4">
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>48</v>
       </c>
@@ -4147,24 +4297,24 @@
       <c r="H39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="4" t="s">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -4173,20 +4323,22 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
-      <c r="AE39" s="6"/>
+      <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="4">
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4">
         <v>43</v>
       </c>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="7" t="s">
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AL39" s="4"/>
+      <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>49</v>
       </c>
@@ -4211,28 +4363,28 @@
       <c r="H40" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="4" t="s">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -4241,20 +4393,22 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
-      <c r="AE40" s="6"/>
+      <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
+      <c r="AG40" s="6"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="4">
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4">
         <v>44</v>
       </c>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="5">
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="5">
         <v>23</v>
       </c>
-      <c r="AL40" s="4"/>
+      <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>50</v>
       </c>
@@ -4279,28 +4433,28 @@
       <c r="H41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="4" t="s">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
@@ -4309,20 +4463,22 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
-      <c r="AE41" s="6"/>
+      <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
+      <c r="AG41" s="6"/>
       <c r="AH41" s="4"/>
-      <c r="AI41" s="4">
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4">
         <v>45</v>
       </c>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="5">
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="5">
         <v>24</v>
       </c>
-      <c r="AL41" s="4"/>
+      <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>51</v>
       </c>
@@ -4347,28 +4503,28 @@
       <c r="H42" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="4" t="s">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
@@ -4377,20 +4533,22 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
+      <c r="AG42" s="6"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="4">
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4">
         <v>46</v>
       </c>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="5">
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5">
         <v>26</v>
       </c>
-      <c r="AL42" s="4"/>
+      <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>53</v>
       </c>
@@ -4415,28 +4573,28 @@
       <c r="H43" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -4445,20 +4603,22 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
-      <c r="AE43" s="6"/>
+      <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
+      <c r="AG43" s="6"/>
       <c r="AH43" s="4"/>
-      <c r="AI43" s="4">
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4">
         <v>49</v>
       </c>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="7" t="s">
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AL43" s="4"/>
+      <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>54</v>
       </c>
@@ -4483,28 +4643,28 @@
       <c r="H44" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
@@ -4513,20 +4673,22 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
-      <c r="AE44" s="6"/>
+      <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
+      <c r="AG44" s="6"/>
       <c r="AH44" s="4"/>
-      <c r="AI44" s="4">
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4">
         <v>50</v>
       </c>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="7" t="s">
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AL44" s="4"/>
+      <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>55</v>
       </c>
@@ -4549,24 +4711,24 @@
       <c r="H45" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="P45" s="5"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="4" t="s">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -4575,19 +4737,21 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
-      <c r="AE45" s="6"/>
+      <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
+      <c r="AG45" s="6"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="4">
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4">
         <v>904</v>
       </c>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="5"/>
       <c r="AL45" s="4"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4599,9 +4763,9 @@
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4642,7 +4806,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>197</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE1C7A-64D1-4939-83F8-830CA0BD082E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HoReCa Restaurant_Cafe" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
+    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="__" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,139 +43,139 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="209">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa_Restaurant_Cafe_Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Sub category</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>sub locations to include</t>
+  </si>
+  <si>
+    <t>sub locations to exclude</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000025</t>
+  </si>
+  <si>
+    <t>HoReCa_Restaurant_Cafe_Shop</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -175,19 +185,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -203,200 +213,197 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanila - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.25L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.25л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801
+    <t>Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanila - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.25L Glass</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.25л стекло</t>
+  </si>
+  <si>
+    <t>Sprite - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>801
 802</t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.33L Glass/SmartWater Still - 0.6L/BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.33л стекло/Смарт Вода - 0.6л/БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90418822, 5449000034335, 40822426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.75л стекло/БонАква Газ - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.75L Glass, BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90382741, 5449000196972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13
+    <t>BonAqua Still - 0.33L Glass/SmartWater Still - 0.6L/BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.33л стекло/Смарт Вода - 0.6л/БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.33L Glass, SmartWater Still - 0.6L, BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>90418822, 5449000034335, 40822426</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.75L Glass/BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.75л стекло/БонАква Газ - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.75L Glass, BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>90382741, 5449000196972</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>13
 14
 18
 16</t>
   </si>
   <si>
-    <t xml:space="preserve">Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Peach - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Персик - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich 0.2L Glass other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич 0.2л стекло остальные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17
+    <t>Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Peach - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Персик - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich 0.2L Glass other</t>
+  </si>
+  <si>
+    <t>Рич 0.2л стекло остальные</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>17
 15
 19
 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Rich - Cherry - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Pineapple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Ананас - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Grapefruit - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Грейпфрут - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Tomato - 0.2L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Томат - 0.2л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
+    <t>Rich - Cherry - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Вишня - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Pineapple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Ананас - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Grapefruit - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Грейпфрут - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Rich - Tomato - 0.2L Glass</t>
+  </si>
+  <si>
+    <t>Рич - Томат - 0.2л стекло</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
   </si>
   <si>
     <t xml:space="preserve">23
@@ -406,128 +413,116 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes, Coca-Cola, Bonaqua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Menu Activation, Menu, Menu Insert, SS_Other Menu Activation, SS_Menu, SS_Menu Insert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Activation, Table Activation, SS_Bar Activation, SS_Table Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Импульс: Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Activation, SS_Table Activation</t>
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>Menu Activation</t>
+  </si>
+  <si>
+    <t>Активация Меню</t>
+  </si>
+  <si>
+    <t>Brand: Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
+  </si>
+  <si>
+    <t>Schweppes, Coca-Cola, Bonaqua</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>Impulse Display</t>
+  </si>
+  <si>
+    <t>Импульс: Дисплей</t>
+  </si>
+  <si>
+    <t>Schweppes, Coca-Cola, Bonaqua, Rich, Sprite, Fanta, SmartWater</t>
+  </si>
+  <si>
+    <t>Destination Activation</t>
+  </si>
+  <si>
+    <t>Активация Стола</t>
   </si>
   <si>
     <t xml:space="preserve">27
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Destination: Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Стола: Имиджи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other Activation: NRGB/Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации: Cтекло/Миксабилити</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater, Schweppes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability, Glass, Mocktails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation, SS_Menu, SS_Menu Insert, SS_Other Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимый ХО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
+    <t>Destination: Images</t>
+  </si>
+  <si>
+    <t>Активация Стола: Имиджи</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Local21</t>
+  </si>
+  <si>
+    <t>Any Other Activation</t>
+  </si>
+  <si>
+    <t>Другие активации</t>
+  </si>
+  <si>
+    <t>Any Other Activation: NRGB/Mix</t>
+  </si>
+  <si>
+    <t>Другие активации: Cтекло/Миксабилити</t>
+  </si>
+  <si>
+    <t>Bonaqua, Sprite, Rich, Dobriy, Fanta, SmartWater, Schweppes</t>
+  </si>
+  <si>
+    <t>Mixability, Glass, Mocktails</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Visible Cooler</t>
+  </si>
+  <si>
+    <t>Видимый ХО</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">39
@@ -535,176 +530,190 @@
 41 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler is Visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО виден</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler fullness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО Заполнен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of filled Coolers (scenes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler wo other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХО без посторонней продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of pure Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of TCCC product at least 98%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIS_COOLER_SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible cooler SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39
+    <t>Cooler is Visible</t>
+  </si>
+  <si>
+    <t>ХО виден</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>SCENES</t>
+  </si>
+  <si>
+    <t>Cooler fullness</t>
+  </si>
+  <si>
+    <t>ХО Заполнен</t>
+  </si>
+  <si>
+    <t>number of filled Coolers (scenes)</t>
+  </si>
+  <si>
+    <t>Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler wo other products</t>
+  </si>
+  <si>
+    <t>ХО без посторонней продукции</t>
+  </si>
+  <si>
+    <t>number of pure Coolers</t>
+  </si>
+  <si>
+    <t>Share of TCCC product at least 98%</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>LOCAL 6</t>
+  </si>
+  <si>
+    <t>VIS_COOLER_SAP</t>
+  </si>
+  <si>
+    <t>Visible cooler SAP</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
+  </si>
+  <si>
+    <t>39
 40
 41</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">DEST
+    <t>DEST
 No_DEST</t>
   </si>
   <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>EO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">23
+    <t>23
 24
 26
 29</t>
   </si>
   <si>
-    <t xml:space="preserve">DO
+    <t>DO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Score Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI weighted Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be added on the 16th of December</t>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>KPI Score Formula</t>
+  </si>
+  <si>
+    <t>KPI weighted Score</t>
+  </si>
+  <si>
+    <t>Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t>KPI from POS 2016</t>
+  </si>
+  <si>
+    <t>Will be added on the 16th of December</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Other Menu Activation; Menu; Menu Insert; SS_Other Menu Activation; SS_Menu; SS_Menu Insert</t>
+  </si>
+  <si>
+    <t>Bar Activation; Table Activation; SS_Bar Activation; SS_Table Activation</t>
+  </si>
+  <si>
+    <t>Table Activation; SS_Table Activation</t>
+  </si>
+  <si>
+    <t>Menu; Menu Insert; Other Menu Activation; SS_Menu; SS_Menu Insert; SS_Other Menu Activation</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Horeca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -713,22 +722,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -741,6 +735,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -758,186 +759,457 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AN45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AA16" activeCellId="0" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35:AB38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.7894736842105"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="77.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="77.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.3400809716599"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="18.3967611336032"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="62.7287449392713"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.7935222672065"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.0242914979757"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="62.7287449392713"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="29.4777327935223"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="23.5384615384615"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.6518218623482"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="18.3967611336032"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6234817813765"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="28.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="47.8744939271255"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="32.336032388664"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.3684210526316"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.8259109311741"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="38.2753036437247"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.8825910931174"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="26.165991902834"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="10.2834008097166"/>
+    <col min="1" max="1" width="14.33203125" style="1"/>
+    <col min="2" max="2" width="15" style="1"/>
+    <col min="3" max="3" width="40.77734375" style="1"/>
+    <col min="4" max="5" width="15" style="1"/>
+    <col min="6" max="6" width="77.33203125" style="1"/>
+    <col min="7" max="7" width="77.88671875" style="1"/>
+    <col min="8" max="8" width="36.88671875" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="21.109375" style="1"/>
+    <col min="12" max="12" width="12.33203125" style="1"/>
+    <col min="13" max="13" width="18.109375" style="1"/>
+    <col min="14" max="14" width="18.44140625" style="1"/>
+    <col min="15" max="15" width="44.5546875" style="1"/>
+    <col min="16" max="16" width="62.77734375" style="2"/>
+    <col min="17" max="17" width="24.77734375" style="1"/>
+    <col min="18" max="18" width="21" style="1"/>
+    <col min="19" max="19" width="62.77734375" style="1"/>
+    <col min="20" max="20" width="29.44140625" style="1"/>
+    <col min="21" max="21" width="23.5546875" style="1"/>
+    <col min="22" max="22" width="15.6640625" style="1"/>
+    <col min="23" max="23" width="10.33203125" style="1"/>
+    <col min="24" max="24" width="18.44140625" style="1"/>
+    <col min="25" max="25" width="22.6640625" style="1"/>
+    <col min="26" max="26" width="28.5546875" style="1"/>
+    <col min="27" max="27" width="28.109375" style="1"/>
+    <col min="28" max="28" width="93.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" style="1"/>
+    <col min="30" max="30" width="31.88671875" style="1"/>
+    <col min="31" max="31" width="32.33203125" style="1"/>
+    <col min="32" max="32" width="21.33203125" style="1"/>
+    <col min="33" max="33" width="18.33203125" style="3"/>
+    <col min="34" max="34" width="17.44140625" style="1"/>
+    <col min="35" max="35" width="17.77734375" style="1"/>
+    <col min="36" max="36" width="38.21875" style="1"/>
+    <col min="37" max="37" width="11.88671875" style="1"/>
+    <col min="38" max="38" width="11.6640625" style="1"/>
+    <col min="39" max="39" width="26.109375" style="2"/>
+    <col min="40" max="40" width="12.77734375" style="1"/>
+    <col min="41" max="1025" width="10.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:40" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1331,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1110,10 +1382,10 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="8" t="n">
+      <c r="AK2" s="8">
         <v>300</v>
       </c>
-      <c r="AL2" s="8" t="n">
+      <c r="AL2" s="8">
         <v>1</v>
       </c>
       <c r="AM2" s="11" t="s">
@@ -1121,8 +1393,8 @@
       </c>
       <c r="AN2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1180,21 +1452,21 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="8" t="n">
+      <c r="AK3" s="8">
         <v>1</v>
       </c>
-      <c r="AL3" s="8" t="n">
+      <c r="AL3" s="8">
         <v>2</v>
       </c>
       <c r="AM3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AN3" s="8" t="n">
+      <c r="AN3" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1221,7 +1493,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="8">
         <v>1</v>
       </c>
       <c r="M4" s="8"/>
@@ -1229,7 +1501,7 @@
       <c r="O4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="9">
         <v>50112128</v>
       </c>
       <c r="Q4" s="8"/>
@@ -1251,32 +1523,32 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" s="10" t="n">
-        <v>0.050021</v>
+        <v>59</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>5.0021000000000003E-2</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="8" t="n">
+      <c r="AK4" s="8">
         <v>2</v>
       </c>
-      <c r="AL4" s="8" t="n">
+      <c r="AL4" s="8">
         <v>3</v>
       </c>
       <c r="AM4" s="9"/>
-      <c r="AN4" s="8" t="n">
+      <c r="AN4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1292,10 +1564,10 @@
         <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>55</v>
@@ -1303,15 +1575,15 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P5" s="9">
         <v>90375408</v>
       </c>
       <c r="Q5" s="8"/>
@@ -1333,32 +1605,32 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG5" s="10" t="n">
-        <v>0.050021</v>
+        <v>59</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>5.0021000000000003E-2</v>
       </c>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
-      <c r="AK5" s="8" t="n">
+      <c r="AK5" s="8">
         <v>4</v>
       </c>
-      <c r="AL5" s="8" t="n">
+      <c r="AL5" s="8">
         <v>3</v>
       </c>
       <c r="AM5" s="9"/>
-      <c r="AN5" s="8" t="n">
+      <c r="AN5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1374,10 +1646,10 @@
         <v>46</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>55</v>
@@ -1385,15 +1657,15 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="P6" s="9">
         <v>87303377</v>
       </c>
       <c r="Q6" s="8"/>
@@ -1415,32 +1687,32 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" s="10" t="n">
-        <v>0.049993</v>
+        <v>59</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>4.9993000000000003E-2</v>
       </c>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
-      <c r="AK6" s="8" t="n">
+      <c r="AK6" s="8">
         <v>803</v>
       </c>
-      <c r="AL6" s="8" t="n">
+      <c r="AL6" s="8">
         <v>3</v>
       </c>
       <c r="AM6" s="9"/>
-      <c r="AN6" s="8" t="n">
+      <c r="AN6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1456,10 +1728,10 @@
         <v>46</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>55</v>
@@ -1467,15 +1739,15 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="8">
         <v>1</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="P7" s="9">
         <v>40822549</v>
       </c>
       <c r="Q7" s="8"/>
@@ -1497,32 +1769,32 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="10" t="n">
-        <v>0.049993</v>
+        <v>59</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>4.9993000000000003E-2</v>
       </c>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
-      <c r="AK7" s="8" t="n">
+      <c r="AK7" s="8">
         <v>5</v>
       </c>
-      <c r="AL7" s="8" t="n">
+      <c r="AL7" s="8">
         <v>3</v>
       </c>
       <c r="AM7" s="9"/>
-      <c r="AN7" s="8" t="n">
+      <c r="AN7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1538,10 +1810,10 @@
         <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>55</v>
@@ -1549,15 +1821,15 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="P8" s="9">
         <v>40822341</v>
       </c>
       <c r="Q8" s="8"/>
@@ -1579,32 +1851,32 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG8" s="10" t="n">
-        <v>0.049993</v>
+        <v>59</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>4.9993000000000003E-2</v>
       </c>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="8" t="n">
+      <c r="AK8" s="8">
         <v>3</v>
       </c>
-      <c r="AL8" s="8" t="n">
+      <c r="AL8" s="8">
         <v>3</v>
       </c>
       <c r="AM8" s="9"/>
-      <c r="AN8" s="8" t="n">
+      <c r="AN8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1620,10 +1892,10 @@
         <v>46</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>55</v>
@@ -1631,15 +1903,15 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="P9" s="9">
         <v>50112135</v>
       </c>
       <c r="Q9" s="8"/>
@@ -1661,32 +1933,32 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG9" s="10" t="n">
-        <v>0.01799</v>
+        <v>59</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>1.7989999999999999E-2</v>
       </c>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
-      <c r="AK9" s="8" t="n">
+      <c r="AK9" s="8">
         <v>804</v>
       </c>
-      <c r="AL9" s="8" t="n">
+      <c r="AL9" s="8">
         <v>3</v>
       </c>
       <c r="AM9" s="9"/>
-      <c r="AN9" s="8" t="n">
+      <c r="AN9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1702,10 +1974,10 @@
         <v>46</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>55</v>
@@ -1713,15 +1985,15 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="8">
         <v>1</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="P10" s="9">
         <v>87126860</v>
       </c>
       <c r="Q10" s="8"/>
@@ -1743,32 +2015,32 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG10" s="10" t="n">
-        <v>0.01799</v>
+        <v>59</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>1.7989999999999999E-2</v>
       </c>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
-      <c r="AK10" s="8" t="n">
+      <c r="AK10" s="8">
         <v>805</v>
       </c>
-      <c r="AL10" s="8" t="n">
+      <c r="AL10" s="8">
         <v>3</v>
       </c>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="8" t="n">
+      <c r="AN10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1781,13 +2053,13 @@
         <v>42</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>49</v>
@@ -1796,7 +2068,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1828,21 +2100,21 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
-      <c r="AK11" s="8" t="n">
+      <c r="AK11" s="8">
         <v>9</v>
       </c>
-      <c r="AL11" s="8" t="n">
+      <c r="AL11" s="8">
         <v>2</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN11" s="8" t="n">
+        <v>77</v>
+      </c>
+      <c r="AN11" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1855,13 +2127,13 @@
         <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>55</v>
@@ -1869,16 +2141,16 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="8">
         <v>1</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -1899,32 +2171,32 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG12" s="10" t="n">
-        <v>0.050055</v>
+        <v>59</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>5.0055000000000002E-2</v>
       </c>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="8" t="n">
+      <c r="AK12" s="8">
         <v>801</v>
       </c>
-      <c r="AL12" s="8" t="n">
+      <c r="AL12" s="8">
         <v>3</v>
       </c>
       <c r="AM12" s="9"/>
-      <c r="AN12" s="8" t="n">
+      <c r="AN12" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1937,13 +2209,13 @@
         <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>55</v>
@@ -1951,16 +2223,16 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="8">
         <v>1</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -1981,32 +2253,32 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG13" s="10" t="n">
-        <v>0.02399</v>
+        <v>59</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>2.3990000000000001E-2</v>
       </c>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="8" t="n">
+      <c r="AK13" s="8">
         <v>802</v>
       </c>
-      <c r="AL13" s="8" t="n">
+      <c r="AL13" s="8">
         <v>3</v>
       </c>
       <c r="AM13" s="9"/>
-      <c r="AN13" s="8" t="n">
+      <c r="AN13" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2019,13 +2291,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>49</v>
@@ -2034,7 +2306,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2066,21 +2338,21 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
-      <c r="AK14" s="8" t="n">
+      <c r="AK14" s="8">
         <v>12</v>
       </c>
-      <c r="AL14" s="8" t="n">
+      <c r="AL14" s="8">
         <v>2</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN14" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="AN14" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2093,13 +2365,13 @@
         <v>42</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>55</v>
@@ -2107,15 +2379,15 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="8">
         <v>1</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="P15" s="9">
         <v>4650075420386</v>
       </c>
       <c r="Q15" s="8"/>
@@ -2137,32 +2409,32 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG15" s="10" t="n">
-        <v>0.04999</v>
+        <v>59</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>4.999E-2</v>
       </c>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
-      <c r="AK15" s="8" t="n">
+      <c r="AK15" s="8">
         <v>13</v>
       </c>
-      <c r="AL15" s="8" t="n">
+      <c r="AL15" s="8">
         <v>3</v>
       </c>
       <c r="AM15" s="9"/>
-      <c r="AN15" s="8" t="n">
+      <c r="AN15" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2175,13 +2447,13 @@
         <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>55</v>
@@ -2189,15 +2461,15 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="8">
         <v>1</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="P16" s="9">
         <v>4650075420362</v>
       </c>
       <c r="Q16" s="8"/>
@@ -2219,32 +2491,32 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG16" s="10" t="n">
-        <v>0.023989</v>
+        <v>59</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>2.3989E-2</v>
       </c>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
-      <c r="AK16" s="8" t="n">
+      <c r="AK16" s="8">
         <v>14</v>
       </c>
-      <c r="AL16" s="8" t="n">
+      <c r="AL16" s="8">
         <v>3</v>
       </c>
       <c r="AM16" s="9"/>
-      <c r="AN16" s="8" t="n">
+      <c r="AN16" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2257,13 +2529,13 @@
         <v>42</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>55</v>
@@ -2271,15 +2543,15 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="8">
         <v>1</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="P17" s="9">
         <v>4650075420423</v>
       </c>
       <c r="Q17" s="8"/>
@@ -2301,32 +2573,32 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG17" s="10" t="n">
-        <v>0.023989</v>
+        <v>59</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>2.3989E-2</v>
       </c>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
-      <c r="AK17" s="8" t="n">
+      <c r="AK17" s="8">
         <v>18</v>
       </c>
-      <c r="AL17" s="8" t="n">
+      <c r="AL17" s="8">
         <v>3</v>
       </c>
       <c r="AM17" s="9"/>
-      <c r="AN17" s="8" t="n">
+      <c r="AN17" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2339,21 +2611,21 @@
         <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="8">
         <v>1</v>
       </c>
       <c r="M18" s="8"/>
@@ -2375,34 +2647,34 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG18" s="10" t="n">
-        <v>0.023989</v>
+        <v>59</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>2.3989E-2</v>
       </c>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="8" t="n">
+      <c r="AK18" s="8">
         <v>16</v>
       </c>
-      <c r="AL18" s="8" t="n">
+      <c r="AL18" s="8">
         <v>3</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN18" s="8" t="n">
+        <v>99</v>
+      </c>
+      <c r="AN18" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2415,13 +2687,13 @@
         <v>42</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>55</v>
@@ -2429,15 +2701,15 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="8">
         <v>1</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P19" s="9">
         <v>4650075420409</v>
       </c>
       <c r="Q19" s="8"/>
@@ -2459,30 +2731,30 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG19" s="10"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
-      <c r="AK19" s="8" t="n">
+      <c r="AK19" s="8">
         <v>15</v>
       </c>
-      <c r="AL19" s="8" t="n">
+      <c r="AL19" s="8">
         <v>4</v>
       </c>
       <c r="AM19" s="9"/>
-      <c r="AN19" s="8" t="n">
+      <c r="AN19" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2495,13 +2767,13 @@
         <v>42</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>55</v>
@@ -2509,15 +2781,15 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="8">
         <v>1</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="P20" s="9">
         <v>4650075420508</v>
       </c>
       <c r="Q20" s="8"/>
@@ -2539,30 +2811,30 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG20" s="10"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
-      <c r="AK20" s="8" t="n">
+      <c r="AK20" s="8">
         <v>17</v>
       </c>
-      <c r="AL20" s="8" t="n">
+      <c r="AL20" s="8">
         <v>4</v>
       </c>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="8" t="n">
+      <c r="AN20" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>25</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2575,13 +2847,13 @@
         <v>42</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>55</v>
@@ -2589,15 +2861,15 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="8">
         <v>1</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P21" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="P21" s="9">
         <v>4650075420485</v>
       </c>
       <c r="Q21" s="8"/>
@@ -2619,30 +2891,30 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
       <c r="AF21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG21" s="10"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
-      <c r="AK21" s="8" t="n">
+      <c r="AK21" s="8">
         <v>19</v>
       </c>
-      <c r="AL21" s="8" t="n">
+      <c r="AL21" s="8">
         <v>4</v>
       </c>
       <c r="AM21" s="9"/>
-      <c r="AN21" s="8" t="n">
+      <c r="AN21" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2655,13 +2927,13 @@
         <v>42</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>55</v>
@@ -2669,15 +2941,15 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="8">
         <v>1</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P22" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="P22" s="9">
         <v>4650075420447</v>
       </c>
       <c r="Q22" s="8"/>
@@ -2699,30 +2971,30 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
-      <c r="AK22" s="8" t="n">
+      <c r="AK22" s="8">
         <v>20</v>
       </c>
-      <c r="AL22" s="8" t="n">
+      <c r="AL22" s="8">
         <v>4</v>
       </c>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="8" t="n">
+      <c r="AN22" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2735,13 +3007,13 @@
         <v>42</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>49</v>
@@ -2750,7 +3022,7 @@
         <v>43</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -2782,21 +3054,21 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="8" t="n">
+      <c r="AK23" s="8">
         <v>21</v>
       </c>
-      <c r="AL23" s="8" t="n">
+      <c r="AL23" s="8">
         <v>2</v>
       </c>
-      <c r="AM23" s="9" t="n">
+      <c r="AM23" s="9">
         <v>806</v>
       </c>
-      <c r="AN23" s="8" t="n">
+      <c r="AN23" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>28</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2809,13 +3081,13 @@
         <v>42</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>55</v>
@@ -2823,15 +3095,15 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="8">
         <v>1</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="P24" s="9">
         <v>5449000148056</v>
       </c>
       <c r="Q24" s="8"/>
@@ -2853,32 +3125,32 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG24" s="10" t="n">
-        <v>0.017997</v>
+        <v>59</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>1.7996999999999999E-2</v>
       </c>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
-      <c r="AK24" s="8" t="n">
+      <c r="AK24" s="8">
         <v>806</v>
       </c>
-      <c r="AL24" s="8" t="n">
+      <c r="AL24" s="8">
         <v>3</v>
       </c>
       <c r="AM24" s="9"/>
-      <c r="AN24" s="8" t="n">
+      <c r="AN24" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>30</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2892,10 +3164,10 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>42</v>
@@ -2928,19 +3200,19 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
-      <c r="AK25" s="8" t="n">
+      <c r="AK25" s="8">
         <v>400</v>
       </c>
-      <c r="AL25" s="8" t="n">
+      <c r="AL25" s="8">
         <v>1</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2953,13 +3225,13 @@
         <v>42</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>55</v>
@@ -2967,28 +3239,28 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8" t="n">
+      <c r="L26" s="8">
         <v>1</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8" t="s">
         <v>56</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
@@ -2996,33 +3268,33 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG26" s="10" t="n">
-        <v>0.166666</v>
+        <v>59</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>0.16666600000000001</v>
       </c>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
-      <c r="AK26" s="8" t="n">
+      <c r="AK26" s="8">
         <v>23</v>
       </c>
-      <c r="AL26" s="8" t="n">
+      <c r="AL26" s="8">
         <v>2</v>
       </c>
       <c r="AM26" s="9"/>
-      <c r="AN26" s="8" t="n">
+      <c r="AN26" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>32</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3035,21 +3307,21 @@
         <v>42</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="H27" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="8">
         <v>1</v>
       </c>
       <c r="M27" s="8"/>
@@ -3070,35 +3342,35 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG27" s="10" t="n">
-        <v>0.083333</v>
+        <v>59</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>8.3333000000000004E-2</v>
       </c>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
-      <c r="AK27" s="8" t="n">
+      <c r="AK27" s="8">
         <v>24</v>
       </c>
-      <c r="AL27" s="8" t="n">
+      <c r="AL27" s="8">
         <v>2</v>
       </c>
-      <c r="AM27" s="9" t="n">
+      <c r="AM27" s="9">
         <v>25</v>
       </c>
-      <c r="AN27" s="8" t="n">
+      <c r="AN27" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>33</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -3111,13 +3383,13 @@
         <v>42</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>55</v>
@@ -3125,28 +3397,28 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="8">
         <v>3</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8" t="s">
         <v>56</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
@@ -3154,31 +3426,31 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG28" s="10"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="8" t="n">
+      <c r="AK28" s="8">
         <v>25</v>
       </c>
-      <c r="AL28" s="8" t="n">
+      <c r="AL28" s="8">
         <v>3</v>
       </c>
       <c r="AM28" s="9"/>
-      <c r="AN28" s="8" t="n">
+      <c r="AN28" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>34</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3191,21 +3463,21 @@
         <v>42</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8" t="n">
+      <c r="L29" s="8">
         <v>1</v>
       </c>
       <c r="M29" s="8"/>
@@ -3226,35 +3498,35 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG29" s="10" t="n">
-        <v>0.083333</v>
+        <v>59</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>8.3333000000000004E-2</v>
       </c>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="8" t="n">
+      <c r="AK29" s="8">
         <v>26</v>
       </c>
-      <c r="AL29" s="8" t="n">
+      <c r="AL29" s="8">
         <v>2</v>
       </c>
       <c r="AM29" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN29" s="8" t="n">
+        <v>131</v>
+      </c>
+      <c r="AN29" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3267,13 +3539,13 @@
         <v>42</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>55</v>
@@ -3281,17 +3553,17 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="8">
         <v>1</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -3300,7 +3572,7 @@
         <v>56</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -3308,31 +3580,31 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG30" s="10"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
-      <c r="AK30" s="8" t="n">
+      <c r="AK30" s="8">
         <v>27</v>
       </c>
-      <c r="AL30" s="8" t="n">
+      <c r="AL30" s="8">
         <v>3</v>
       </c>
       <c r="AM30" s="9"/>
-      <c r="AN30" s="8" t="n">
+      <c r="AN30" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3342,24 +3614,24 @@
         <v>41</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8" t="n">
+      <c r="L31" s="8">
         <v>1</v>
       </c>
       <c r="M31" s="8"/>
@@ -3384,29 +3656,29 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
       <c r="AF31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG31" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG31" s="10">
         <v>0.12</v>
       </c>
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
-      <c r="AK31" s="8" t="n">
+      <c r="AK31" s="8">
         <v>29</v>
       </c>
-      <c r="AL31" s="8" t="n">
+      <c r="AL31" s="8">
         <v>2</v>
       </c>
-      <c r="AM31" s="9" t="n">
+      <c r="AM31" s="9">
         <v>900</v>
       </c>
-      <c r="AN31" s="8" t="n">
+      <c r="AN31" s="8">
         <v>400</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>38</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3416,16 +3688,16 @@
         <v>41</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>55</v>
@@ -3433,28 +3705,28 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="8">
         <v>1</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="U32" s="8" t="s">
         <v>56</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -3462,31 +3734,31 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="8" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG32" s="10"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
-      <c r="AK32" s="8" t="n">
+      <c r="AK32" s="8">
         <v>900</v>
       </c>
-      <c r="AL32" s="8" t="n">
+      <c r="AL32" s="8">
         <v>3</v>
       </c>
       <c r="AM32" s="9"/>
-      <c r="AN32" s="8" t="n">
+      <c r="AN32" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3500,10 +3772,10 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>42</v>
@@ -3536,19 +3808,19 @@
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="8" t="n">
+      <c r="AK33" s="8">
         <v>310</v>
       </c>
-      <c r="AL33" s="8" t="n">
+      <c r="AL33" s="8">
         <v>1</v>
       </c>
-      <c r="AM33" s="9" t="n">
+      <c r="AM33" s="9">
         <v>312</v>
       </c>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -3562,10 +3834,10 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>42</v>
@@ -3598,21 +3870,21 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="8" t="n">
+      <c r="AK34" s="8">
         <v>312</v>
       </c>
-      <c r="AL34" s="8" t="n">
+      <c r="AL34" s="8">
         <v>1</v>
       </c>
-      <c r="AM34" s="9" t="n">
+      <c r="AM34" s="9">
         <v>38</v>
       </c>
-      <c r="AN34" s="8" t="n">
+      <c r="AN34" s="8">
         <v>310</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3622,24 +3894,24 @@
         <v>41</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8" t="n">
+      <c r="L35" s="8">
         <v>3</v>
       </c>
       <c r="M35" s="8"/>
@@ -3657,36 +3929,36 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG35" s="10" t="n">
-        <v>0.046668</v>
+        <v>59</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>4.6668000000000001E-2</v>
       </c>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
-      <c r="AK35" s="8" t="n">
+      <c r="AK35" s="8">
         <v>38</v>
       </c>
-      <c r="AL35" s="8" t="n">
+      <c r="AL35" s="8">
         <v>2</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN35" s="8" t="n">
+        <v>153</v>
+      </c>
+      <c r="AN35" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -3696,24 +3968,24 @@
         <v>41</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8" t="n">
+      <c r="L36" s="8">
         <v>1</v>
       </c>
       <c r="M36" s="8"/>
@@ -3728,7 +4000,7 @@
         <v>56</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
@@ -3736,31 +4008,31 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG36" s="10"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
-      <c r="AK36" s="8" t="n">
+      <c r="AK36" s="8">
         <v>39</v>
       </c>
-      <c r="AL36" s="8" t="n">
+      <c r="AL36" s="8">
         <v>3</v>
       </c>
       <c r="AM36" s="9"/>
-      <c r="AN36" s="8" t="n">
+      <c r="AN36" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
         <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -3770,33 +4042,33 @@
         <v>41</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8" t="n">
+      <c r="L37" s="8">
         <v>1</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -3806,41 +4078,41 @@
         <v>56</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG37" s="10"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK37" s="8" t="n">
+        <v>164</v>
+      </c>
+      <c r="AK37" s="8">
         <v>40</v>
       </c>
-      <c r="AL37" s="8" t="n">
+      <c r="AL37" s="8">
         <v>3</v>
       </c>
       <c r="AM37" s="9"/>
-      <c r="AN37" s="8" t="n">
+      <c r="AN37" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>47</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -3850,33 +4122,33 @@
         <v>41</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8" t="n">
+      <c r="L38" s="8">
         <v>1</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -3886,41 +4158,41 @@
         <v>56</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
       <c r="AF38" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG38" s="10"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK38" s="8" t="n">
+        <v>168</v>
+      </c>
+      <c r="AK38" s="8">
         <v>41</v>
       </c>
-      <c r="AL38" s="8" t="n">
+      <c r="AL38" s="8">
         <v>3</v>
       </c>
       <c r="AM38" s="9"/>
-      <c r="AN38" s="8" t="n">
+      <c r="AN38" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>48</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3930,24 +4202,24 @@
         <v>41</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3960,7 +4232,7 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
@@ -3976,17 +4248,17 @@
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
-      <c r="AK39" s="8" t="n">
+      <c r="AK39" s="8">
         <v>43</v>
       </c>
       <c r="AL39" s="8"/>
       <c r="AM39" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+    <row r="40" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -3996,33 +4268,33 @@
         <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -4030,7 +4302,7 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
@@ -4046,17 +4318,17 @@
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
-      <c r="AK40" s="8" t="n">
+      <c r="AK40" s="8">
         <v>44</v>
       </c>
       <c r="AL40" s="8"/>
-      <c r="AM40" s="9" t="n">
+      <c r="AM40" s="9">
         <v>23</v>
       </c>
       <c r="AN40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
         <v>50</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -4066,33 +4338,33 @@
         <v>41</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -4100,7 +4372,7 @@
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
@@ -4116,17 +4388,17 @@
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
-      <c r="AK41" s="8" t="n">
+      <c r="AK41" s="8">
         <v>45</v>
       </c>
       <c r="AL41" s="8"/>
-      <c r="AM41" s="9" t="n">
+      <c r="AM41" s="9">
         <v>24</v>
       </c>
       <c r="AN41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
         <v>51</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -4136,33 +4408,33 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
@@ -4170,7 +4442,7 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
@@ -4186,17 +4458,17 @@
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="8" t="n">
+      <c r="AK42" s="8">
         <v>46</v>
       </c>
       <c r="AL42" s="8"/>
-      <c r="AM42" s="9" t="n">
+      <c r="AM42" s="9">
         <v>26</v>
       </c>
       <c r="AN42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>53</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -4206,33 +4478,33 @@
         <v>41</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -4240,7 +4512,7 @@
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
@@ -4256,17 +4528,17 @@
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
-      <c r="AK43" s="8" t="n">
+      <c r="AK43" s="8">
         <v>49</v>
       </c>
       <c r="AL43" s="8"/>
       <c r="AM43" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AN43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+    <row r="44" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
         <v>54</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -4276,33 +4548,33 @@
         <v>41</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
@@ -4310,7 +4582,7 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
@@ -4326,17 +4598,17 @@
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="8" t="n">
+      <c r="AK44" s="8">
         <v>50</v>
       </c>
       <c r="AL44" s="8"/>
       <c r="AM44" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AN44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+    <row r="45" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
         <v>55</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -4346,22 +4618,22 @@
         <v>41</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -4374,7 +4646,7 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
@@ -4390,7 +4662,7 @@
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
-      <c r="AK45" s="8" t="n">
+      <c r="AK45" s="8">
         <v>904</v>
       </c>
       <c r="AL45" s="8"/>
@@ -4398,87 +4670,71 @@
       <c r="AN45" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN45"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AN45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col min="1" max="1025" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="0" t="s">
+      <c r="G1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>207</v>
+      <c r="K1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>208</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>